--- a/Data/Excel/FCFS/7.xlsx
+++ b/Data/Excel/FCFS/7.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>53.71</v>
+        <v>53.74</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53.18</v>
+        <v>53.21</v>
       </c>
       <c r="C3" t="n">
         <v>-2</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>52.64</v>
+        <v>52.68</v>
       </c>
       <c r="C4" t="n">
         <v>-2</v>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52.11</v>
+        <v>52.14</v>
       </c>
       <c r="C5" t="n">
         <v>-2</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51.58</v>
+        <v>51.61</v>
       </c>
       <c r="C6" t="n">
         <v>-2</v>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51.04</v>
+        <v>51.08</v>
       </c>
       <c r="C7" t="n">
         <v>-2</v>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50.51</v>
+        <v>50.54</v>
       </c>
       <c r="C8" t="n">
         <v>-2</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>49.98</v>
+        <v>50.01</v>
       </c>
       <c r="C9" t="n">
         <v>-2</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>49.44</v>
+        <v>49.48</v>
       </c>
       <c r="C10" t="n">
         <v>-2</v>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>48.91</v>
+        <v>48.94</v>
       </c>
       <c r="C11" t="n">
         <v>-2</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>48.38</v>
+        <v>48.41</v>
       </c>
       <c r="C12" t="n">
         <v>-2</v>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>47.84</v>
+        <v>47.88</v>
       </c>
       <c r="C13" t="n">
         <v>-2</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>47.31</v>
+        <v>47.34</v>
       </c>
       <c r="C14" t="n">
         <v>-2</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>46.78</v>
+        <v>46.81</v>
       </c>
       <c r="C15" t="n">
         <v>-2</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>46.24</v>
+        <v>46.28</v>
       </c>
       <c r="C16" t="n">
         <v>-2</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>45.71</v>
+        <v>45.74</v>
       </c>
       <c r="C17" t="n">
         <v>-2</v>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45.18</v>
+        <v>45.21</v>
       </c>
       <c r="C18" t="n">
         <v>-2</v>
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44.64</v>
+        <v>44.68</v>
       </c>
       <c r="C19" t="n">
         <v>-2</v>
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.11</v>
+        <v>44.14</v>
       </c>
       <c r="C20" t="n">
         <v>-2</v>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>43.58</v>
+        <v>43.61</v>
       </c>
       <c r="C21" t="n">
         <v>-2</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.04</v>
+        <v>43.08</v>
       </c>
       <c r="C22" t="n">
         <v>-2</v>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>42.51</v>
+        <v>42.54</v>
       </c>
       <c r="C23" t="n">
         <v>-2</v>
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>41.98</v>
+        <v>42.01</v>
       </c>
       <c r="C24" t="n">
         <v>-2</v>
@@ -921,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>41.44</v>
+        <v>41.48</v>
       </c>
       <c r="C25" t="n">
         <v>-2</v>
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40.91</v>
+        <v>40.94</v>
       </c>
       <c r="C26" t="n">
         <v>-2</v>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.38</v>
+        <v>40.41</v>
       </c>
       <c r="C27" t="n">
         <v>-2</v>
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>39.84</v>
+        <v>39.88</v>
       </c>
       <c r="C28" t="n">
         <v>-2</v>
@@ -1001,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>39.31</v>
+        <v>39.34</v>
       </c>
       <c r="C29" t="n">
         <v>-2</v>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>38.78</v>
+        <v>38.81</v>
       </c>
       <c r="C30" t="n">
         <v>-2</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38.24</v>
+        <v>38.28</v>
       </c>
       <c r="C31" t="n">
         <v>-2</v>
@@ -1061,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>37.71</v>
+        <v>37.74</v>
       </c>
       <c r="C32" t="n">
         <v>-2</v>
@@ -1081,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>37.18</v>
+        <v>37.21</v>
       </c>
       <c r="C33" t="n">
         <v>-2</v>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>36.64</v>
+        <v>36.68</v>
       </c>
       <c r="C34" t="n">
         <v>-2</v>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>36.11</v>
+        <v>36.14</v>
       </c>
       <c r="C35" t="n">
         <v>-2</v>
@@ -1141,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.58</v>
+        <v>35.61</v>
       </c>
       <c r="C36" t="n">
         <v>-2</v>
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.04</v>
+        <v>35.08</v>
       </c>
       <c r="C37" t="n">
         <v>-2</v>
@@ -1181,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.51</v>
+        <v>34.54</v>
       </c>
       <c r="C38" t="n">
         <v>-2</v>
@@ -1201,7 +1201,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>33.98</v>
+        <v>34.01</v>
       </c>
       <c r="C39" t="n">
         <v>-2</v>
@@ -1221,7 +1221,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>33.44</v>
+        <v>33.48</v>
       </c>
       <c r="C40" t="n">
         <v>-2</v>
@@ -1241,7 +1241,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>32.91</v>
+        <v>32.94</v>
       </c>
       <c r="C41" t="n">
         <v>-2</v>
@@ -1261,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>32.38</v>
+        <v>32.41</v>
       </c>
       <c r="C42" t="n">
         <v>-2</v>
@@ -1281,7 +1281,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>31.84</v>
+        <v>31.88</v>
       </c>
       <c r="C43" t="n">
         <v>-2</v>
@@ -1301,7 +1301,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31.31</v>
+        <v>31.34</v>
       </c>
       <c r="C44" t="n">
         <v>-2</v>
@@ -1321,7 +1321,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30.78</v>
+        <v>30.81</v>
       </c>
       <c r="C45" t="n">
         <v>-2</v>
@@ -1341,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30.24</v>
+        <v>30.28</v>
       </c>
       <c r="C46" t="n">
         <v>-2</v>
@@ -1361,7 +1361,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29.71</v>
+        <v>29.74</v>
       </c>
       <c r="C47" t="n">
         <v>-2</v>
@@ -1381,7 +1381,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.18</v>
+        <v>29.21</v>
       </c>
       <c r="C48" t="n">
         <v>-2</v>
@@ -1401,7 +1401,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>28.64</v>
+        <v>28.68</v>
       </c>
       <c r="C49" t="n">
         <v>-2</v>
@@ -1421,7 +1421,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>28.11</v>
+        <v>28.14</v>
       </c>
       <c r="C50" t="n">
         <v>-2</v>
@@ -1441,7 +1441,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.58</v>
+        <v>27.61</v>
       </c>
       <c r="C51" t="n">
         <v>-2</v>
@@ -1461,7 +1461,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.04</v>
+        <v>27.08</v>
       </c>
       <c r="C52" t="n">
         <v>-2</v>
@@ -1481,7 +1481,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.51</v>
+        <v>26.54</v>
       </c>
       <c r="C53" t="n">
         <v>-2</v>
@@ -1501,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25.98</v>
+        <v>26.01</v>
       </c>
       <c r="C54" t="n">
         <v>-2</v>
@@ -1521,7 +1521,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.44</v>
+        <v>25.48</v>
       </c>
       <c r="C55" t="n">
         <v>-2</v>
@@ -1541,7 +1541,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24.91</v>
+        <v>24.94</v>
       </c>
       <c r="C56" t="n">
         <v>-2</v>
@@ -1561,7 +1561,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24.38</v>
+        <v>24.41</v>
       </c>
       <c r="C57" t="n">
         <v>-2</v>
@@ -1581,7 +1581,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23.84</v>
+        <v>23.88</v>
       </c>
       <c r="C58" t="n">
         <v>-2</v>
@@ -1601,7 +1601,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23.31</v>
+        <v>23.34</v>
       </c>
       <c r="C59" t="n">
         <v>-2</v>
@@ -1621,7 +1621,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>22.78</v>
+        <v>22.81</v>
       </c>
       <c r="C60" t="n">
         <v>-2</v>
@@ -1641,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22.24</v>
+        <v>22.28</v>
       </c>
       <c r="C61" t="n">
         <v>-2</v>
@@ -1661,7 +1661,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21.71</v>
+        <v>21.74</v>
       </c>
       <c r="C62" t="n">
         <v>-2</v>
@@ -1681,7 +1681,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21.18</v>
+        <v>21.21</v>
       </c>
       <c r="C63" t="n">
         <v>-2</v>
@@ -1701,7 +1701,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20.64</v>
+        <v>20.68</v>
       </c>
       <c r="C64" t="n">
         <v>-2</v>
@@ -1721,7 +1721,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.11</v>
+        <v>20.14</v>
       </c>
       <c r="C65" t="n">
         <v>-2</v>
@@ -1741,7 +1741,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19.58</v>
+        <v>19.61</v>
       </c>
       <c r="C66" t="n">
         <v>-2</v>
@@ -1761,7 +1761,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19.04</v>
+        <v>19.08</v>
       </c>
       <c r="C67" t="n">
         <v>-2</v>
@@ -1781,7 +1781,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18.51</v>
+        <v>18.54</v>
       </c>
       <c r="C68" t="n">
         <v>-2</v>
@@ -1801,7 +1801,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>17.98</v>
+        <v>18.01</v>
       </c>
       <c r="C69" t="n">
         <v>-2</v>
@@ -1821,7 +1821,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17.44</v>
+        <v>17.48</v>
       </c>
       <c r="C70" t="n">
         <v>-2</v>
@@ -1841,7 +1841,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16.91</v>
+        <v>16.94</v>
       </c>
       <c r="C71" t="n">
         <v>-2</v>
@@ -1861,7 +1861,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16.38</v>
+        <v>16.41</v>
       </c>
       <c r="C72" t="n">
         <v>-2</v>
@@ -1881,7 +1881,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.84</v>
+        <v>15.88</v>
       </c>
       <c r="C73" t="n">
         <v>-2</v>
@@ -1901,7 +1901,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.31</v>
+        <v>15.34</v>
       </c>
       <c r="C74" t="n">
         <v>-2</v>
@@ -1921,7 +1921,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14.78</v>
+        <v>14.81</v>
       </c>
       <c r="C75" t="n">
         <v>-2</v>
@@ -1941,7 +1941,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.24</v>
+        <v>14.28</v>
       </c>
       <c r="C76" t="n">
         <v>-2</v>
@@ -1961,7 +1961,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13.71</v>
+        <v>13.74</v>
       </c>
       <c r="C77" t="n">
         <v>-2</v>
@@ -1981,7 +1981,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.18</v>
+        <v>13.21</v>
       </c>
       <c r="C78" t="n">
         <v>-2</v>
@@ -2001,7 +2001,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.64</v>
+        <v>12.68</v>
       </c>
       <c r="C79" t="n">
         <v>-2.06</v>
@@ -2021,10 +2021,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.11</v>
+        <v>12.15</v>
       </c>
       <c r="C80" t="n">
-        <v>-2.07</v>
+        <v>-2.08</v>
       </c>
       <c r="D80" t="n">
         <v>8</v>
@@ -2041,7 +2041,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.58</v>
+        <v>11.61</v>
       </c>
       <c r="C81" t="n">
         <v>-2.07</v>
@@ -2061,10 +2061,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.05</v>
+        <v>11.08</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.03</v>
+        <v>-2.04</v>
       </c>
       <c r="D82" t="n">
         <v>8</v>
@@ -2081,7 +2081,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10.52</v>
+        <v>10.55</v>
       </c>
       <c r="C83" t="n">
         <v>-1.98</v>
@@ -2101,7 +2101,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.99</v>
+        <v>10.02</v>
       </c>
       <c r="C84" t="n">
         <v>-1.91</v>
@@ -2110,7 +2110,7 @@
         <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -2121,13 +2121,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.460000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.81</v>
+        <v>-1.82</v>
       </c>
       <c r="D85" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="E85" t="n">
         <v>3.07</v>
@@ -2147,7 +2147,7 @@
         <v>-1.71</v>
       </c>
       <c r="D86" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="E86" t="n">
         <v>3.04</v>
@@ -2161,13 +2161,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8.5</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.59</v>
+        <v>-1.58</v>
       </c>
       <c r="D87" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="E87" t="n">
         <v>3.01</v>
@@ -2181,18 +2181,1278 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.08</v>
+        <v>7.94</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.48</v>
+        <v>-1.43</v>
       </c>
       <c r="D88" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D97" t="n">
+        <v>8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D98" t="n">
+        <v>8</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D99" t="n">
+        <v>8</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="D101" t="n">
+        <v>8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="D103" t="n">
+        <v>8</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D104" t="n">
+        <v>8</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D105" t="n">
+        <v>8</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D106" t="n">
+        <v>8</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D107" t="n">
+        <v>8</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="D108" t="n">
+        <v>8</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="D109" t="n">
+        <v>8</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="C110" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="D110" t="n">
+        <v>8</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="D112" t="n">
+        <v>8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="C113" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D113" t="n">
+        <v>8</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="C114" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="D114" t="n">
+        <v>8</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="C115" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="D116" t="n">
+        <v>8</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="D117" t="n">
+        <v>8</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="C118" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="D118" t="n">
+        <v>8</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="C119" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="D119" t="n">
+        <v>8</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="C120" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="D120" t="n">
+        <v>8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="C121" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D121" t="n">
+        <v>8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="C122" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="D122" t="n">
+        <v>8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="C124" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="D124" t="n">
+        <v>8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="C125" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="D125" t="n">
+        <v>8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="C126" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="D126" t="n">
+        <v>8</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="C127" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="D127" t="n">
+        <v>8</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="C128" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="D128" t="n">
+        <v>8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="C129" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="D129" t="n">
+        <v>8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="C130" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="D130" t="n">
+        <v>8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="D131" t="n">
+        <v>8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="C132" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="D132" t="n">
+        <v>8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="C133" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="D133" t="n">
+        <v>8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="C134" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="C135" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="D135" t="n">
+        <v>8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="C136" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="D136" t="n">
+        <v>8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="C137" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="D138" t="n">
+        <v>8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-1.91</v>
+      </c>
+      <c r="C139" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="D139" t="n">
+        <v>8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-1.91</v>
+      </c>
+      <c r="C140" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="D140" t="n">
+        <v>8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="C141" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="D141" t="n">
+        <v>8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="C142" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="D142" t="n">
+        <v>8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="C143" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="D143" t="n">
+        <v>8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="C144" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="D144" t="n">
+        <v>8</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="C145" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="D145" t="n">
+        <v>8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="C146" t="n">
+        <v>25.21</v>
+      </c>
+      <c r="D146" t="n">
+        <v>8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="C147" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="D147" t="n">
+        <v>8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="C148" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="D148" t="n">
+        <v>8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="C149" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="D149" t="n">
+        <v>8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="C150" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="D150" t="n">
+        <v>8</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="C151" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="D151" t="n">
+        <v>8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2207,7 +3467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2255,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>57.24</v>
+        <v>48.61</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -2275,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>56.58</v>
+        <v>47.95</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -2295,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>55.93</v>
+        <v>47.3</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -2315,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>55.28</v>
+        <v>46.65</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -2335,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>54.64</v>
+        <v>46.01</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -2355,7 +3615,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>45.37</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -2375,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.37</v>
+        <v>44.74</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -2395,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>52.74</v>
+        <v>44.11</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -2415,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>52.11</v>
+        <v>43.48</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -2435,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>51.49</v>
+        <v>42.86</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -2455,7 +3715,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>50.87</v>
+        <v>42.24</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -2475,7 +3735,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>50.25</v>
+        <v>41.62</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -2495,7 +3755,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>49.64</v>
+        <v>41</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -2515,7 +3775,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>49.02</v>
+        <v>40.39</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -2535,7 +3795,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>48.41</v>
+        <v>39.78</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -2555,7 +3815,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>47.8</v>
+        <v>39.17</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -2575,7 +3835,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>47.19</v>
+        <v>38.56</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -2595,7 +3855,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>46.58</v>
+        <v>37.95</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -2615,7 +3875,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>45.97</v>
+        <v>37.34</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -2635,7 +3895,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>45.36</v>
+        <v>36.73</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -2655,7 +3915,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>44.76</v>
+        <v>36.12</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -2675,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>44.15</v>
+        <v>35.52</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -2695,7 +3955,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>43.55</v>
+        <v>34.91</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -2715,7 +3975,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>42.94</v>
+        <v>34.31</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -2735,7 +3995,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>42.34</v>
+        <v>33.71</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -2755,7 +4015,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>41.73</v>
+        <v>33.1</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -2775,7 +4035,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.13</v>
+        <v>32.5</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -2795,7 +4055,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>40.53</v>
+        <v>31.9</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -2815,7 +4075,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>39.93</v>
+        <v>31.29</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -2835,7 +4095,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>39.32</v>
+        <v>30.69</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -2855,7 +4115,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>38.72</v>
+        <v>30.09</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -2875,7 +4135,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>38.12</v>
+        <v>29.49</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -2895,7 +4155,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>37.52</v>
+        <v>28.89</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -2915,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>36.92</v>
+        <v>28.29</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -2935,7 +4195,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>36.32</v>
+        <v>27.68</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -2955,7 +4215,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>35.71</v>
+        <v>27.08</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -2975,7 +4235,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>35.11</v>
+        <v>26.48</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -2995,7 +4255,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>34.51</v>
+        <v>25.88</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -3015,10 +4275,10 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>33.91</v>
+        <v>25.28</v>
       </c>
       <c r="D40" t="n">
-        <v>9.01</v>
+        <v>8.51</v>
       </c>
       <c r="E40" t="n">
         <v>-1.57</v>
@@ -3035,10 +4295,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>33.31</v>
+        <v>24.71</v>
       </c>
       <c r="D41" t="n">
-        <v>9.01</v>
+        <v>8.06</v>
       </c>
       <c r="E41" t="n">
         <v>-1.57</v>
@@ -3055,10 +4315,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>32.71</v>
+        <v>24.18</v>
       </c>
       <c r="D42" t="n">
-        <v>9.01</v>
+        <v>7.67</v>
       </c>
       <c r="E42" t="n">
         <v>-1.57</v>
@@ -3075,10 +4335,10 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>32.11</v>
+        <v>23.66</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>7.32</v>
       </c>
       <c r="E43" t="n">
         <v>-1.57</v>
@@ -3095,10 +4355,10 @@
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>31.51</v>
+        <v>23.18</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>7</v>
       </c>
       <c r="E44" t="n">
         <v>-1.57</v>
@@ -3115,10 +4375,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>30.91</v>
+        <v>22.71</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>6.73</v>
       </c>
       <c r="E45" t="n">
         <v>-1.57</v>
@@ -3135,10 +4395,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>30.31</v>
+        <v>22.26</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>5.98</v>
       </c>
       <c r="E46" t="n">
         <v>-1.57</v>
@@ -3155,10 +4415,10 @@
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>29.71</v>
+        <v>21.86</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E47" t="n">
         <v>-1.57</v>
@@ -3175,10 +4435,10 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>29.11</v>
+        <v>21.51</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E48" t="n">
         <v>-1.57</v>
@@ -3195,10 +4455,10 @@
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>28.51</v>
+        <v>21.19</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E49" t="n">
         <v>-1.57</v>
@@ -3215,10 +4475,10 @@
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>27.91</v>
+        <v>20.91</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E50" t="n">
         <v>-1.57</v>
@@ -3235,10 +4495,10 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>27.31</v>
+        <v>20.66</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E51" t="n">
         <v>-1.57</v>
@@ -3255,10 +4515,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>26.71</v>
+        <v>20.44</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E52" t="n">
         <v>-1.57</v>
@@ -3275,10 +4535,10 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>26.11</v>
+        <v>20.25</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E53" t="n">
         <v>-1.57</v>
@@ -3295,10 +4555,10 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>25.51</v>
+        <v>20.07</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E54" t="n">
         <v>-1.57</v>
@@ -3315,10 +4575,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>24.91</v>
+        <v>19.92</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E55" t="n">
         <v>-1.57</v>
@@ -3335,10 +4595,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>24.31</v>
+        <v>19.78</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E56" t="n">
         <v>-1.57</v>
@@ -3355,10 +4615,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>23.71</v>
+        <v>19.66</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E57" t="n">
         <v>-1.57</v>
@@ -3375,10 +4635,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>23.11</v>
+        <v>19.55</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E58" t="n">
         <v>-1.57</v>
@@ -3395,10 +4655,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>22.51</v>
+        <v>19.45</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E59" t="n">
         <v>-1.57</v>
@@ -3415,10 +4675,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>21.91</v>
+        <v>19.36</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E60" t="n">
         <v>-1.57</v>
@@ -3435,10 +4695,10 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>21.31</v>
+        <v>19.29</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E61" t="n">
         <v>-1.57</v>
@@ -3455,10 +4715,10 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>20.71</v>
+        <v>19.22</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E62" t="n">
         <v>-1.57</v>
@@ -3475,10 +4735,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>20.11</v>
+        <v>19.16</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E63" t="n">
         <v>-1.57</v>
@@ -3495,10 +4755,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>19.51</v>
+        <v>19.1</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E64" t="n">
         <v>-1.57</v>
@@ -3515,10 +4775,10 @@
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>18.91</v>
+        <v>19.06</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E65" t="n">
         <v>-1.57</v>
@@ -3535,10 +4795,10 @@
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>18.31</v>
+        <v>19.01</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E66" t="n">
         <v>-1.57</v>
@@ -3555,10 +4815,10 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>17.71</v>
+        <v>18.98</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E67" t="n">
         <v>-1.57</v>
@@ -3575,10 +4835,10 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>17.11</v>
+        <v>18.94</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E68" t="n">
         <v>-1.57</v>
@@ -3595,10 +4855,10 @@
         <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>16.51</v>
+        <v>18.91</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E69" t="n">
         <v>-1.57</v>
@@ -3615,10 +4875,10 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>15.91</v>
+        <v>18.89</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E70" t="n">
         <v>-1.57</v>
@@ -3635,10 +4895,10 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>15.31</v>
+        <v>18.86</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>0.31</v>
       </c>
       <c r="E71" t="n">
         <v>-1.57</v>
@@ -3655,10 +4915,10 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>14.71</v>
+        <v>18.84</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>0.28</v>
       </c>
       <c r="E72" t="n">
         <v>-1.57</v>
@@ -3675,10 +4935,10 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>14.11</v>
+        <v>18.82</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="E73" t="n">
         <v>-1.57</v>
@@ -3695,10 +4955,10 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>13.51</v>
+        <v>18.81</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0.22</v>
       </c>
       <c r="E74" t="n">
         <v>-1.57</v>
@@ -3715,10 +4975,10 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>12.91</v>
+        <v>18.79</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="E75" t="n">
         <v>-1.57</v>
@@ -3732,16 +4992,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>12.31</v>
+        <v>18.78</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0.17</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.55</v>
+        <v>-1.57</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3752,16 +5012,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>11.71</v>
+        <v>18.77</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0.16</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.56</v>
+        <v>-1.57</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -3772,13 +5032,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>11.11</v>
+        <v>18.76</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0.14</v>
       </c>
       <c r="E78" t="n">
         <v>-1.57</v>
@@ -3792,16 +5052,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>10.51</v>
+        <v>18.75</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0.12</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.59</v>
+        <v>-1.57</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -3812,16 +5072,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>9.92</v>
+        <v>18.74</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.11</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.62</v>
+        <v>-1.57</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3832,16 +5092,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>9.32</v>
+        <v>18.73</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.1</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.65</v>
+        <v>-1.57</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -3852,16 +5112,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>8.74</v>
+        <v>18.73</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.68</v>
+        <v>-1.57</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -3872,16 +5132,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>8.16</v>
+        <v>18.72</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.08</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.72</v>
+        <v>-1.57</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -3892,16 +5152,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.32</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>7.59</v>
+        <v>18.72</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.76</v>
+        <v>-1.57</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -3912,16 +5172,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.12</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>7.02</v>
+        <v>18.71</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>0.06</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.79</v>
+        <v>-1.57</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -3932,16 +5192,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.89</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>6.47</v>
+        <v>18.71</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>0.05</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.83</v>
+        <v>-1.57</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -3952,16 +5212,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.64</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>5.92</v>
+        <v>18.7</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>0.05</v>
       </c>
       <c r="E87" t="n">
-        <v>-1.87</v>
+        <v>-1.57</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -3972,18 +5232,1278 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.36</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>5.39</v>
+        <v>18.7</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>0.04</v>
       </c>
       <c r="E88" t="n">
-        <v>-1.91</v>
+        <v>-1.57</v>
       </c>
       <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2</v>
+      </c>
+      <c r="C102" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2</v>
+      </c>
+      <c r="C104" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>18.09</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2</v>
+      </c>
+      <c r="C107" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2</v>
+      </c>
+      <c r="C114" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="D116" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D118" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="C120" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="C121" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C122" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="D122" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="C123" t="n">
+        <v>11</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="C124" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="D124" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D125" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="D126" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="C127" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="D127" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="C128" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="D128" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C129" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="D129" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D130" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D131" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="D132" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="D133" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D135" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D136" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="D138" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-2.11</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D139" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D140" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-2.19</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D141" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-2.24</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D142" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-2.28</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-3.29</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D143" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-3.78</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D144" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-4.28</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D145" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-2.42</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-4.79</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D146" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-5.32</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="D147" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-5.86</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D148" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-2.56</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-6.41</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="D149" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-6.97</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="D150" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-7.54</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="D151" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3998,7 +6518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4043,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-52.34</v>
+        <v>-59.45</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -4063,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-51.68</v>
+        <v>-58.79</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4083,7 +6603,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-51.03</v>
+        <v>-58.13</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -4103,7 +6623,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-50.38</v>
+        <v>-57.49</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -4123,7 +6643,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-49.74</v>
+        <v>-56.84</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -4143,7 +6663,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-49.1</v>
+        <v>-56.21</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -4163,7 +6683,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-48.47</v>
+        <v>-55.57</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -4183,7 +6703,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-47.84</v>
+        <v>-54.95</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -4203,7 +6723,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-47.21</v>
+        <v>-54.32</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -4223,7 +6743,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-46.59</v>
+        <v>-53.7</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -4243,7 +6763,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-45.97</v>
+        <v>-53.08</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -4263,7 +6783,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-45.35</v>
+        <v>-52.46</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -4283,7 +6803,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-44.74</v>
+        <v>-51.84</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4303,7 +6823,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-44.12</v>
+        <v>-51.23</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -4323,7 +6843,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-43.51</v>
+        <v>-50.61</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4343,7 +6863,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-42.9</v>
+        <v>-50</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -4363,7 +6883,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-42.29</v>
+        <v>-49.39</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -4383,7 +6903,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-41.68</v>
+        <v>-48.78</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -4403,7 +6923,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-41.07</v>
+        <v>-48.18</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -4423,7 +6943,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-40.46</v>
+        <v>-47.57</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -4443,7 +6963,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-39.86</v>
+        <v>-46.96</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -4463,7 +6983,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-39.25</v>
+        <v>-46.36</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -4483,7 +7003,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-38.65</v>
+        <v>-45.75</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -4503,7 +7023,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-38.04</v>
+        <v>-45.15</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -4523,7 +7043,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-37.44</v>
+        <v>-44.54</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -4543,7 +7063,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-36.83</v>
+        <v>-43.94</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -4563,7 +7083,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-36.23</v>
+        <v>-43.34</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -4583,7 +7103,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-35.63</v>
+        <v>-42.73</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -4603,7 +7123,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-35.03</v>
+        <v>-42.13</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -4623,7 +7143,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-34.42</v>
+        <v>-41.53</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -4643,7 +7163,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-33.82</v>
+        <v>-40.93</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -4663,7 +7183,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-33.22</v>
+        <v>-40.33</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -4683,7 +7203,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-32.62</v>
+        <v>-39.72</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -4703,7 +7223,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-32.02</v>
+        <v>-39.12</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -4723,7 +7243,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-31.42</v>
+        <v>-38.52</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
@@ -4743,7 +7263,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-30.81</v>
+        <v>-37.92</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
@@ -4763,7 +7283,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-30.21</v>
+        <v>-37.32</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
@@ -4783,7 +7303,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-29.61</v>
+        <v>-36.72</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
@@ -4803,7 +7323,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-29.01</v>
+        <v>-36.12</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -4823,7 +7343,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-28.41</v>
+        <v>-35.52</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
@@ -4843,7 +7363,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-27.81</v>
+        <v>-34.92</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
@@ -4863,7 +7383,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-27.21</v>
+        <v>-34.32</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
@@ -4883,7 +7403,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-26.61</v>
+        <v>-33.72</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -4903,7 +7423,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-26.01</v>
+        <v>-33.12</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
@@ -4923,7 +7443,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-25.41</v>
+        <v>-32.51</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -4943,7 +7463,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-24.81</v>
+        <v>-31.91</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
@@ -4963,7 +7483,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-24.21</v>
+        <v>-31.31</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
@@ -4983,7 +7503,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-23.61</v>
+        <v>-30.71</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
@@ -5003,7 +7523,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-23.01</v>
+        <v>-30.11</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
@@ -5023,7 +7543,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-22.41</v>
+        <v>-29.51</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
@@ -5043,7 +7563,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-21.81</v>
+        <v>-28.91</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
@@ -5063,7 +7583,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-21.21</v>
+        <v>-28.31</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
@@ -5083,7 +7603,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-20.61</v>
+        <v>-27.71</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
@@ -5103,7 +7623,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-20.01</v>
+        <v>-27.11</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
@@ -5123,7 +7643,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-19.41</v>
+        <v>-26.51</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
@@ -5143,7 +7663,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-18.81</v>
+        <v>-25.91</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
@@ -5163,13 +7683,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-18.21</v>
+        <v>-25.31</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E58" t="n">
         <v>-0</v>
@@ -5183,13 +7703,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-17.61</v>
+        <v>-24.75</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>8.06</v>
       </c>
       <c r="E59" t="n">
         <v>-0</v>
@@ -5203,13 +7723,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-17.01</v>
+        <v>-24.21</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>7.66</v>
       </c>
       <c r="E60" t="n">
         <v>-0</v>
@@ -5223,13 +7743,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-16.41</v>
+        <v>-23.7</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E61" t="n">
         <v>-0</v>
@@ -5243,13 +7763,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-15.81</v>
+        <v>-23.21</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E62" t="n">
         <v>-0</v>
@@ -5263,13 +7783,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-15.21</v>
+        <v>-22.74</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E63" t="n">
         <v>-0</v>
@@ -5283,13 +7803,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-14.61</v>
+        <v>-22.3</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>5.97</v>
       </c>
       <c r="E64" t="n">
         <v>-0</v>
@@ -5303,13 +7823,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-14.01</v>
+        <v>-21.9</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E65" t="n">
         <v>-0</v>
@@ -5323,13 +7843,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-13.41</v>
+        <v>-21.54</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E66" t="n">
         <v>-0</v>
@@ -5343,16 +7863,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-12.81</v>
+        <v>-21.23</v>
       </c>
       <c r="C67" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E67" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -5363,16 +7883,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-12.21</v>
+        <v>-20.95</v>
       </c>
       <c r="C68" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E68" t="n">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -5383,16 +7903,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-11.61</v>
+        <v>-20.7</v>
       </c>
       <c r="C69" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>3.31</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -5403,13 +7923,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-11.01</v>
+        <v>-20.48</v>
       </c>
       <c r="C70" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E70" t="n">
         <v>-0</v>
@@ -5423,16 +7943,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-10.41</v>
+        <v>-20.28</v>
       </c>
       <c r="C71" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.03</v>
+        <v>-0</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -5443,16 +7963,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-9.82</v>
+        <v>-20.11</v>
       </c>
       <c r="C72" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.05</v>
+        <v>-0</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -5463,16 +7983,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-9.23</v>
+        <v>-19.95</v>
       </c>
       <c r="C73" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.09</v>
+        <v>-0</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -5483,16 +8003,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-8.65</v>
+        <v>-19.82</v>
       </c>
       <c r="C74" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.12</v>
+        <v>-0</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -5503,16 +8023,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-8.07</v>
+        <v>-19.69</v>
       </c>
       <c r="C75" t="n">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.16</v>
+        <v>-0</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -5523,16 +8043,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-7.5</v>
+        <v>-19.58</v>
       </c>
       <c r="C76" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.19</v>
+        <v>-0</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -5543,16 +8063,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-6.93</v>
+        <v>-19.49</v>
       </c>
       <c r="C77" t="n">
-        <v>1.09</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.23</v>
+        <v>-0</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -5563,16 +8083,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-6.38</v>
+        <v>-19.4</v>
       </c>
       <c r="C78" t="n">
-        <v>0.86</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.27</v>
+        <v>-0</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -5583,16 +8103,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-5.84</v>
+        <v>-19.32</v>
       </c>
       <c r="C79" t="n">
-        <v>0.61</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.31</v>
+        <v>-0</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -5603,16 +8123,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-5.3</v>
+        <v>-19.26</v>
       </c>
       <c r="C80" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.35</v>
+        <v>-0</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -5623,16 +8143,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-4.78</v>
+        <v>-19.2</v>
       </c>
       <c r="C81" t="n">
-        <v>0.03</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.39</v>
+        <v>-0</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -5643,16 +8163,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-4.28</v>
+        <v>-19.14</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.43</v>
+        <v>-0</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -5663,16 +8183,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-3.79</v>
+        <v>-19.09</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.64</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.48</v>
+        <v>-0</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -5683,16 +8203,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-3.31</v>
+        <v>-19.05</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.01</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.52</v>
+        <v>-0</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -5703,16 +8223,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-2.86</v>
+        <v>-19.01</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -5723,16 +8243,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-2.42</v>
+        <v>-18.98</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.81</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.61</v>
+        <v>0</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -5743,16 +8263,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-2</v>
+        <v>-18.95</v>
       </c>
       <c r="C87" t="n">
-        <v>-2.23</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.65</v>
+        <v>-0</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -5763,18 +8283,1278 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.6</v>
+        <v>-18.92</v>
       </c>
       <c r="C88" t="n">
-        <v>-2.68</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-18.9</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-18.88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-18.86</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-18.84</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-18.83</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-18.82</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-18.8</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-18.79</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-18.79</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-18.78</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-18.77</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-18.76</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-18.76</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-18.76</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-18.75</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-18.75</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-18.75</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-18.74</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-18.74</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-18.74</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-18.74</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-18.74</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-18.74</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-18.69</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-18.63</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-18.54</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-18.43</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-18.29</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-18.14</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-17.94</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-17.69</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-17.41</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-17.09</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-16.74</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-16.36</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-15.95</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-15.53</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-15.08</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-14.62</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-14.14</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-13.65</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-13.15</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-12.64</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D144" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-12.11</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D145" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-11.58</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D146" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-11.04</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D147" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D148" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-9.949999999999999</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-9.41</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D150" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-8.859999999999999</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D151" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5789,7 +9569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5837,7 +9617,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-50.38</v>
+        <v>-48.08</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -5857,7 +9637,7 @@
         <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-49.72</v>
+        <v>-47.42</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -5877,7 +9657,7 @@
         <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>-49.06</v>
+        <v>-46.77</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -5897,7 +9677,7 @@
         <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>-48.42</v>
+        <v>-46.12</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -5917,7 +9697,7 @@
         <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-47.77</v>
+        <v>-45.48</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -5937,7 +9717,7 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-47.14</v>
+        <v>-44.84</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -5957,7 +9737,7 @@
         <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>-46.51</v>
+        <v>-44.21</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -5977,7 +9757,7 @@
         <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>-45.88</v>
+        <v>-43.58</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -5997,7 +9777,7 @@
         <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>-45.25</v>
+        <v>-42.95</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -6017,7 +9797,7 @@
         <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-44.63</v>
+        <v>-42.33</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -6037,7 +9817,7 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-44.01</v>
+        <v>-41.71</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -6057,7 +9837,7 @@
         <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>-43.39</v>
+        <v>-41.09</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -6077,7 +9857,7 @@
         <v>-2</v>
       </c>
       <c r="C14" t="n">
-        <v>-42.77</v>
+        <v>-40.47</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -6097,7 +9877,7 @@
         <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>-42.16</v>
+        <v>-39.86</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -6117,7 +9897,7 @@
         <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>-41.54</v>
+        <v>-39.25</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -6137,7 +9917,7 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-40.93</v>
+        <v>-38.64</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -6157,7 +9937,7 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>-40.32</v>
+        <v>-38.03</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -6177,7 +9957,7 @@
         <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>-39.71</v>
+        <v>-37.42</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -6197,7 +9977,7 @@
         <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>-39.11</v>
+        <v>-36.81</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -6217,7 +9997,7 @@
         <v>-2</v>
       </c>
       <c r="C21" t="n">
-        <v>-38.5</v>
+        <v>-36.2</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -6237,7 +10017,7 @@
         <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>-37.89</v>
+        <v>-35.6</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -6257,7 +10037,7 @@
         <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>-37.29</v>
+        <v>-34.99</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -6277,7 +10057,7 @@
         <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>-36.68</v>
+        <v>-34.39</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -6297,7 +10077,7 @@
         <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>-36.08</v>
+        <v>-33.78</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -6317,7 +10097,7 @@
         <v>-2</v>
       </c>
       <c r="C26" t="n">
-        <v>-35.47</v>
+        <v>-33.18</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -6337,7 +10117,7 @@
         <v>-2</v>
       </c>
       <c r="C27" t="n">
-        <v>-34.87</v>
+        <v>-32.57</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -6357,7 +10137,7 @@
         <v>-2</v>
       </c>
       <c r="C28" t="n">
-        <v>-34.27</v>
+        <v>-31.97</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -6377,7 +10157,7 @@
         <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>-33.66</v>
+        <v>-31.37</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -6397,7 +10177,7 @@
         <v>-2</v>
       </c>
       <c r="C30" t="n">
-        <v>-33.06</v>
+        <v>-30.76</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -6417,7 +10197,7 @@
         <v>-2</v>
       </c>
       <c r="C31" t="n">
-        <v>-32.46</v>
+        <v>-30.16</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -6437,7 +10217,7 @@
         <v>-2</v>
       </c>
       <c r="C32" t="n">
-        <v>-31.86</v>
+        <v>-29.56</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -6457,7 +10237,7 @@
         <v>-2</v>
       </c>
       <c r="C33" t="n">
-        <v>-31.26</v>
+        <v>-28.96</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -6477,7 +10257,7 @@
         <v>-2</v>
       </c>
       <c r="C34" t="n">
-        <v>-30.65</v>
+        <v>-28.36</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -6497,7 +10277,7 @@
         <v>-2</v>
       </c>
       <c r="C35" t="n">
-        <v>-30.05</v>
+        <v>-27.76</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -6517,7 +10297,7 @@
         <v>-2</v>
       </c>
       <c r="C36" t="n">
-        <v>-29.45</v>
+        <v>-27.15</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -6537,7 +10317,7 @@
         <v>-2</v>
       </c>
       <c r="C37" t="n">
-        <v>-28.85</v>
+        <v>-26.55</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -6557,7 +10337,7 @@
         <v>-2</v>
       </c>
       <c r="C38" t="n">
-        <v>-28.25</v>
+        <v>-25.95</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -6577,7 +10357,7 @@
         <v>-2</v>
       </c>
       <c r="C39" t="n">
-        <v>-27.65</v>
+        <v>-25.35</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -6597,7 +10377,7 @@
         <v>-2</v>
       </c>
       <c r="C40" t="n">
-        <v>-27.05</v>
+        <v>-24.75</v>
       </c>
       <c r="D40" t="n">
         <v>9.01</v>
@@ -6617,7 +10397,7 @@
         <v>-2</v>
       </c>
       <c r="C41" t="n">
-        <v>-26.45</v>
+        <v>-24.15</v>
       </c>
       <c r="D41" t="n">
         <v>9.01</v>
@@ -6637,7 +10417,7 @@
         <v>-2</v>
       </c>
       <c r="C42" t="n">
-        <v>-25.85</v>
+        <v>-23.55</v>
       </c>
       <c r="D42" t="n">
         <v>9.01</v>
@@ -6657,7 +10437,7 @@
         <v>-2</v>
       </c>
       <c r="C43" t="n">
-        <v>-25.25</v>
+        <v>-22.95</v>
       </c>
       <c r="D43" t="n">
         <v>9.01</v>
@@ -6677,7 +10457,7 @@
         <v>-2</v>
       </c>
       <c r="C44" t="n">
-        <v>-24.65</v>
+        <v>-22.35</v>
       </c>
       <c r="D44" t="n">
         <v>9.01</v>
@@ -6697,7 +10477,7 @@
         <v>-2</v>
       </c>
       <c r="C45" t="n">
-        <v>-24.05</v>
+        <v>-21.75</v>
       </c>
       <c r="D45" t="n">
         <v>9.01</v>
@@ -6717,10 +10497,10 @@
         <v>-2</v>
       </c>
       <c r="C46" t="n">
-        <v>-23.44</v>
+        <v>-21.15</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E46" t="n">
         <v>1.57</v>
@@ -6737,10 +10517,10 @@
         <v>-2</v>
       </c>
       <c r="C47" t="n">
-        <v>-22.84</v>
+        <v>-20.58</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>8.06</v>
       </c>
       <c r="E47" t="n">
         <v>1.57</v>
@@ -6757,10 +10537,10 @@
         <v>-2</v>
       </c>
       <c r="C48" t="n">
-        <v>-22.24</v>
+        <v>-20.04</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>7.66</v>
       </c>
       <c r="E48" t="n">
         <v>1.57</v>
@@ -6777,10 +10557,10 @@
         <v>-2</v>
       </c>
       <c r="C49" t="n">
-        <v>-21.64</v>
+        <v>-19.53</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E49" t="n">
         <v>1.57</v>
@@ -6797,10 +10577,10 @@
         <v>-2</v>
       </c>
       <c r="C50" t="n">
-        <v>-21.04</v>
+        <v>-19.05</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E50" t="n">
         <v>1.57</v>
@@ -6817,10 +10597,10 @@
         <v>-2</v>
       </c>
       <c r="C51" t="n">
-        <v>-20.44</v>
+        <v>-18.58</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E51" t="n">
         <v>1.57</v>
@@ -6837,10 +10617,10 @@
         <v>-2</v>
       </c>
       <c r="C52" t="n">
-        <v>-19.84</v>
+        <v>-18.13</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>5.98</v>
       </c>
       <c r="E52" t="n">
         <v>1.57</v>
@@ -6857,10 +10637,10 @@
         <v>-2</v>
       </c>
       <c r="C53" t="n">
-        <v>-19.24</v>
+        <v>-17.73</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E53" t="n">
         <v>1.57</v>
@@ -6877,10 +10657,10 @@
         <v>-2</v>
       </c>
       <c r="C54" t="n">
-        <v>-18.64</v>
+        <v>-17.38</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E54" t="n">
         <v>1.57</v>
@@ -6897,10 +10677,10 @@
         <v>-2</v>
       </c>
       <c r="C55" t="n">
-        <v>-18.04</v>
+        <v>-17.06</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E55" t="n">
         <v>1.57</v>
@@ -6917,10 +10697,10 @@
         <v>-2</v>
       </c>
       <c r="C56" t="n">
-        <v>-17.44</v>
+        <v>-16.78</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E56" t="n">
         <v>1.57</v>
@@ -6937,10 +10717,10 @@
         <v>-2</v>
       </c>
       <c r="C57" t="n">
-        <v>-16.84</v>
+        <v>-16.53</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E57" t="n">
         <v>1.57</v>
@@ -6957,10 +10737,10 @@
         <v>-2</v>
       </c>
       <c r="C58" t="n">
-        <v>-16.24</v>
+        <v>-16.31</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E58" t="n">
         <v>1.57</v>
@@ -6977,10 +10757,10 @@
         <v>-2</v>
       </c>
       <c r="C59" t="n">
-        <v>-15.64</v>
+        <v>-16.12</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E59" t="n">
         <v>1.57</v>
@@ -6997,10 +10777,10 @@
         <v>-2</v>
       </c>
       <c r="C60" t="n">
-        <v>-15.04</v>
+        <v>-15.94</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E60" t="n">
         <v>1.57</v>
@@ -7017,10 +10797,10 @@
         <v>-2</v>
       </c>
       <c r="C61" t="n">
-        <v>-14.44</v>
+        <v>-15.79</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E61" t="n">
         <v>1.57</v>
@@ -7037,10 +10817,10 @@
         <v>-2</v>
       </c>
       <c r="C62" t="n">
-        <v>-13.84</v>
+        <v>-15.65</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E62" t="n">
         <v>1.57</v>
@@ -7057,10 +10837,10 @@
         <v>-2</v>
       </c>
       <c r="C63" t="n">
-        <v>-13.24</v>
+        <v>-15.53</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E63" t="n">
         <v>1.57</v>
@@ -7074,16 +10854,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="C64" t="n">
-        <v>-12.64</v>
+        <v>-15.42</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E64" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -7094,16 +10874,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-2.07</v>
+        <v>-2</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.05</v>
+        <v>-15.32</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E65" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -7114,16 +10894,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.45</v>
+        <v>-15.23</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E66" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -7134,16 +10914,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-2.02</v>
+        <v>-2</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.85</v>
+        <v>-15.16</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E67" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -7154,16 +10934,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.95</v>
+        <v>-2</v>
       </c>
       <c r="C68" t="n">
-        <v>-10.25</v>
+        <v>-15.09</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E68" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -7174,16 +10954,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.85</v>
+        <v>-2</v>
       </c>
       <c r="C69" t="n">
-        <v>-9.66</v>
+        <v>-15.03</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -7194,16 +10974,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.74</v>
+        <v>-2</v>
       </c>
       <c r="C70" t="n">
-        <v>-9.07</v>
+        <v>-14.98</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E70" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -7214,16 +10994,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.59</v>
+        <v>-2</v>
       </c>
       <c r="C71" t="n">
-        <v>-8.49</v>
+        <v>-14.93</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E71" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -7234,16 +11014,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.43</v>
+        <v>-2</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.91</v>
+        <v>-14.89</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E72" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -7254,16 +11034,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.24</v>
+        <v>-2</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.34</v>
+        <v>-14.85</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E73" t="n">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -7274,16 +11054,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.03</v>
+        <v>-2</v>
       </c>
       <c r="C74" t="n">
-        <v>-6.78</v>
+        <v>-14.81</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E74" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -7294,16 +11074,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.79</v>
+        <v>-2</v>
       </c>
       <c r="C75" t="n">
-        <v>-6.23</v>
+        <v>-14.78</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E75" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -7314,16 +11094,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.53</v>
+        <v>-2</v>
       </c>
       <c r="C76" t="n">
-        <v>-5.69</v>
+        <v>-14.76</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E76" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -7334,16 +11114,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.24</v>
+        <v>-2</v>
       </c>
       <c r="C77" t="n">
-        <v>-5.16</v>
+        <v>-14.73</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0.31</v>
       </c>
       <c r="E77" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -7354,16 +11134,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.06</v>
+        <v>-2</v>
       </c>
       <c r="C78" t="n">
-        <v>-4.64</v>
+        <v>-14.71</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0.28</v>
       </c>
       <c r="E78" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -7374,16 +11154,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.39</v>
+        <v>-2</v>
       </c>
       <c r="C79" t="n">
-        <v>-4.14</v>
+        <v>-14.69</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="E79" t="n">
-        <v>1.12</v>
+        <v>1.57</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -7394,16 +11174,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.74</v>
+        <v>-2</v>
       </c>
       <c r="C80" t="n">
-        <v>-3.66</v>
+        <v>-14.68</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.22</v>
       </c>
       <c r="E80" t="n">
-        <v>1.08</v>
+        <v>1.57</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -7414,16 +11194,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.12</v>
+        <v>-2</v>
       </c>
       <c r="C81" t="n">
-        <v>-3.19</v>
+        <v>-14.66</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="E81" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -7434,16 +11214,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.51</v>
+        <v>-2</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.73</v>
+        <v>-14.65</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.17</v>
       </c>
       <c r="E82" t="n">
-        <v>0.99</v>
+        <v>1.57</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -7454,16 +11234,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.92</v>
+        <v>-2</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.3</v>
+        <v>-14.64</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.16</v>
       </c>
       <c r="E83" t="n">
-        <v>0.95</v>
+        <v>1.57</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -7474,16 +11254,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.36</v>
+        <v>-2</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.88</v>
+        <v>-14.63</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E84" t="n">
-        <v>0.91</v>
+        <v>1.57</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -7494,16 +11274,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.81</v>
+        <v>-2</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.49</v>
+        <v>-14.59</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>1.07</v>
       </c>
       <c r="E85" t="n">
-        <v>0.86</v>
+        <v>1.57</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -7514,16 +11294,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.28</v>
+        <v>-2</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.12</v>
+        <v>-14.51</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E86" t="n">
-        <v>0.82</v>
+        <v>1.57</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -7534,16 +11314,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.77</v>
+        <v>-2</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.77</v>
+        <v>-14.42</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>1.79</v>
       </c>
       <c r="E87" t="n">
-        <v>0.77</v>
+        <v>1.57</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -7554,18 +11334,1278 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-14.3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-14.16</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-14</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-13.55</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-13.26</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-12.94</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-12.58</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-12.2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-11.37</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-10.93</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-10.47</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-1.91</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-9.51</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-9.01</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-8.51</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-8.01</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-6.99</v>
+      </c>
+      <c r="D107" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-6.49</v>
+      </c>
+      <c r="D108" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-5.98</v>
+      </c>
+      <c r="D109" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-5.49</v>
+      </c>
+      <c r="D110" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-4.99</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-4.51</v>
+      </c>
+      <c r="D112" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="D113" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="D114" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-3.13</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="D116" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-2.27</v>
+      </c>
+      <c r="D117" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="D118" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="D119" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="D120" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="D121" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
         <v>4.25</v>
       </c>
-      <c r="C88" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="C122" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="D122" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D124" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D125" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D126" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D127" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D128" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D129" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D130" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D131" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D132" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D133" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D135" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D136" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D139" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D140" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D141" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D142" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D143" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D144" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D146" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D147" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D148" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D149" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D150" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D151" t="n">
         <v>9</v>
       </c>
-      <c r="E88" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="F88" t="b">
+      <c r="E151" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Data/Excel/FCFS/7.xlsx
+++ b/Data/Excel/FCFS/7.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>53.74</v>
+        <v>52.09</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53.21</v>
+        <v>51.55</v>
       </c>
       <c r="C3" t="n">
         <v>-2</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>52.68</v>
+        <v>51.02</v>
       </c>
       <c r="C4" t="n">
         <v>-2</v>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52.14</v>
+        <v>50.49</v>
       </c>
       <c r="C5" t="n">
         <v>-2</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51.61</v>
+        <v>49.95</v>
       </c>
       <c r="C6" t="n">
         <v>-2</v>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51.08</v>
+        <v>49.42</v>
       </c>
       <c r="C7" t="n">
         <v>-2</v>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50.54</v>
+        <v>48.89</v>
       </c>
       <c r="C8" t="n">
         <v>-2</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>50.01</v>
+        <v>48.35</v>
       </c>
       <c r="C9" t="n">
         <v>-2</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>49.48</v>
+        <v>47.82</v>
       </c>
       <c r="C10" t="n">
         <v>-2</v>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>48.94</v>
+        <v>47.29</v>
       </c>
       <c r="C11" t="n">
         <v>-2</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>48.41</v>
+        <v>46.75</v>
       </c>
       <c r="C12" t="n">
         <v>-2</v>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>47.88</v>
+        <v>46.22</v>
       </c>
       <c r="C13" t="n">
         <v>-2</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>47.34</v>
+        <v>45.69</v>
       </c>
       <c r="C14" t="n">
         <v>-2</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>46.81</v>
+        <v>45.15</v>
       </c>
       <c r="C15" t="n">
         <v>-2</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>46.28</v>
+        <v>44.62</v>
       </c>
       <c r="C16" t="n">
         <v>-2</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>45.74</v>
+        <v>44.09</v>
       </c>
       <c r="C17" t="n">
         <v>-2</v>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45.21</v>
+        <v>43.55</v>
       </c>
       <c r="C18" t="n">
         <v>-2</v>
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44.68</v>
+        <v>43.02</v>
       </c>
       <c r="C19" t="n">
         <v>-2</v>
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.14</v>
+        <v>42.49</v>
       </c>
       <c r="C20" t="n">
         <v>-2</v>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>43.61</v>
+        <v>41.95</v>
       </c>
       <c r="C21" t="n">
         <v>-2</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.08</v>
+        <v>41.42</v>
       </c>
       <c r="C22" t="n">
         <v>-2</v>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>42.54</v>
+        <v>40.89</v>
       </c>
       <c r="C23" t="n">
         <v>-2</v>
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.01</v>
+        <v>40.35</v>
       </c>
       <c r="C24" t="n">
         <v>-2</v>
@@ -921,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>41.48</v>
+        <v>39.82</v>
       </c>
       <c r="C25" t="n">
         <v>-2</v>
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40.94</v>
+        <v>39.29</v>
       </c>
       <c r="C26" t="n">
         <v>-2</v>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.41</v>
+        <v>38.75</v>
       </c>
       <c r="C27" t="n">
         <v>-2</v>
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>39.88</v>
+        <v>38.22</v>
       </c>
       <c r="C28" t="n">
         <v>-2</v>
@@ -1001,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>39.34</v>
+        <v>37.69</v>
       </c>
       <c r="C29" t="n">
         <v>-2</v>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>38.81</v>
+        <v>37.15</v>
       </c>
       <c r="C30" t="n">
         <v>-2</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38.28</v>
+        <v>36.62</v>
       </c>
       <c r="C31" t="n">
         <v>-2</v>
@@ -1061,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>37.74</v>
+        <v>36.09</v>
       </c>
       <c r="C32" t="n">
         <v>-2</v>
@@ -1081,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>37.21</v>
+        <v>35.55</v>
       </c>
       <c r="C33" t="n">
         <v>-2</v>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>36.68</v>
+        <v>35.02</v>
       </c>
       <c r="C34" t="n">
         <v>-2</v>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>36.14</v>
+        <v>34.49</v>
       </c>
       <c r="C35" t="n">
         <v>-2</v>
@@ -1141,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.61</v>
+        <v>33.95</v>
       </c>
       <c r="C36" t="n">
         <v>-2</v>
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.08</v>
+        <v>33.42</v>
       </c>
       <c r="C37" t="n">
         <v>-2</v>
@@ -1181,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.54</v>
+        <v>32.89</v>
       </c>
       <c r="C38" t="n">
         <v>-2</v>
@@ -1201,7 +1201,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.01</v>
+        <v>32.35</v>
       </c>
       <c r="C39" t="n">
         <v>-2</v>
@@ -1221,7 +1221,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>33.48</v>
+        <v>31.82</v>
       </c>
       <c r="C40" t="n">
         <v>-2</v>
@@ -1241,7 +1241,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>32.94</v>
+        <v>31.29</v>
       </c>
       <c r="C41" t="n">
         <v>-2</v>
@@ -1261,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>32.41</v>
+        <v>30.75</v>
       </c>
       <c r="C42" t="n">
         <v>-2</v>
@@ -1281,7 +1281,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>31.88</v>
+        <v>30.22</v>
       </c>
       <c r="C43" t="n">
         <v>-2</v>
@@ -1301,7 +1301,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31.34</v>
+        <v>29.69</v>
       </c>
       <c r="C44" t="n">
         <v>-2</v>
@@ -1321,7 +1321,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30.81</v>
+        <v>29.15</v>
       </c>
       <c r="C45" t="n">
         <v>-2</v>
@@ -1341,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30.28</v>
+        <v>28.62</v>
       </c>
       <c r="C46" t="n">
         <v>-2</v>
@@ -1361,7 +1361,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29.74</v>
+        <v>28.09</v>
       </c>
       <c r="C47" t="n">
         <v>-2</v>
@@ -1381,7 +1381,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.21</v>
+        <v>27.55</v>
       </c>
       <c r="C48" t="n">
         <v>-2</v>
@@ -1401,7 +1401,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>28.68</v>
+        <v>27.02</v>
       </c>
       <c r="C49" t="n">
         <v>-2</v>
@@ -1421,7 +1421,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>28.14</v>
+        <v>26.49</v>
       </c>
       <c r="C50" t="n">
         <v>-2</v>
@@ -1441,7 +1441,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.61</v>
+        <v>25.95</v>
       </c>
       <c r="C51" t="n">
         <v>-2</v>
@@ -1461,7 +1461,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.08</v>
+        <v>25.42</v>
       </c>
       <c r="C52" t="n">
         <v>-2</v>
@@ -1481,7 +1481,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.54</v>
+        <v>24.89</v>
       </c>
       <c r="C53" t="n">
         <v>-2</v>
@@ -1501,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>26.01</v>
+        <v>24.35</v>
       </c>
       <c r="C54" t="n">
         <v>-2</v>
@@ -1521,7 +1521,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.48</v>
+        <v>23.82</v>
       </c>
       <c r="C55" t="n">
         <v>-2</v>
@@ -1541,7 +1541,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24.94</v>
+        <v>23.29</v>
       </c>
       <c r="C56" t="n">
         <v>-2</v>
@@ -1561,7 +1561,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24.41</v>
+        <v>22.75</v>
       </c>
       <c r="C57" t="n">
         <v>-2</v>
@@ -1581,7 +1581,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23.88</v>
+        <v>22.22</v>
       </c>
       <c r="C58" t="n">
         <v>-2</v>
@@ -1601,7 +1601,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23.34</v>
+        <v>21.69</v>
       </c>
       <c r="C59" t="n">
         <v>-2</v>
@@ -1621,7 +1621,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>22.81</v>
+        <v>21.15</v>
       </c>
       <c r="C60" t="n">
         <v>-2</v>
@@ -1641,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22.28</v>
+        <v>20.62</v>
       </c>
       <c r="C61" t="n">
         <v>-2</v>
@@ -1661,7 +1661,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21.74</v>
+        <v>20.09</v>
       </c>
       <c r="C62" t="n">
         <v>-2</v>
@@ -1681,7 +1681,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21.21</v>
+        <v>19.55</v>
       </c>
       <c r="C63" t="n">
         <v>-2</v>
@@ -1701,7 +1701,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20.68</v>
+        <v>19.02</v>
       </c>
       <c r="C64" t="n">
         <v>-2</v>
@@ -1721,7 +1721,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.14</v>
+        <v>18.49</v>
       </c>
       <c r="C65" t="n">
         <v>-2</v>
@@ -1741,7 +1741,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19.61</v>
+        <v>17.95</v>
       </c>
       <c r="C66" t="n">
         <v>-2</v>
@@ -1761,7 +1761,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19.08</v>
+        <v>17.42</v>
       </c>
       <c r="C67" t="n">
         <v>-2</v>
@@ -1781,7 +1781,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18.54</v>
+        <v>16.89</v>
       </c>
       <c r="C68" t="n">
         <v>-2</v>
@@ -1801,7 +1801,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18.01</v>
+        <v>16.35</v>
       </c>
       <c r="C69" t="n">
         <v>-2</v>
@@ -1821,7 +1821,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17.48</v>
+        <v>15.82</v>
       </c>
       <c r="C70" t="n">
         <v>-2</v>
@@ -1841,7 +1841,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16.94</v>
+        <v>15.29</v>
       </c>
       <c r="C71" t="n">
         <v>-2</v>
@@ -1861,7 +1861,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16.41</v>
+        <v>14.75</v>
       </c>
       <c r="C72" t="n">
         <v>-2</v>
@@ -1881,7 +1881,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.88</v>
+        <v>14.22</v>
       </c>
       <c r="C73" t="n">
         <v>-2</v>
@@ -1901,7 +1901,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.34</v>
+        <v>13.69</v>
       </c>
       <c r="C74" t="n">
         <v>-2</v>
@@ -1921,7 +1921,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14.81</v>
+        <v>13.15</v>
       </c>
       <c r="C75" t="n">
         <v>-2</v>
@@ -1941,16 +1941,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.28</v>
+        <v>12.62</v>
       </c>
       <c r="C76" t="n">
-        <v>-2</v>
+        <v>-2.05</v>
       </c>
       <c r="D76" t="n">
         <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13.74</v>
+        <v>12.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-2</v>
+        <v>-2.07</v>
       </c>
       <c r="D77" t="n">
         <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -1981,16 +1981,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.21</v>
+        <v>11.56</v>
       </c>
       <c r="C78" t="n">
-        <v>-2</v>
+        <v>-2.06</v>
       </c>
       <c r="D78" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="E78" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.68</v>
+        <v>11.05</v>
       </c>
       <c r="C79" t="n">
-        <v>-2.06</v>
+        <v>-2.03</v>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="E79" t="n">
-        <v>3.16</v>
+        <v>3.14</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -2021,16 +2021,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.15</v>
+        <v>10.57</v>
       </c>
       <c r="C80" t="n">
-        <v>-2.08</v>
+        <v>-1.98</v>
       </c>
       <c r="D80" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="E80" t="n">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -2041,16 +2041,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.61</v>
+        <v>10.13</v>
       </c>
       <c r="C81" t="n">
-        <v>-2.07</v>
+        <v>-1.92</v>
       </c>
       <c r="D81" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="E81" t="n">
-        <v>3.16</v>
+        <v>3.1</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.08</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.04</v>
+        <v>-1.85</v>
       </c>
       <c r="D82" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E82" t="n">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -2081,16 +2081,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10.55</v>
+        <v>9.31</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.98</v>
+        <v>-1.78</v>
       </c>
       <c r="D83" t="n">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="E83" t="n">
-        <v>3.12</v>
+        <v>3.06</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -2101,16 +2101,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10.02</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.91</v>
+        <v>-1.7</v>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>5.2</v>
       </c>
       <c r="E84" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -2121,1338 +2121,18 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.5</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.82</v>
+        <v>-1.65</v>
       </c>
       <c r="D85" t="n">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="E85" t="n">
-        <v>3.07</v>
+        <v>3.02</v>
       </c>
       <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-1.71</v>
-      </c>
-      <c r="D86" t="n">
-        <v>8</v>
-      </c>
-      <c r="E86" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-1.58</v>
-      </c>
-      <c r="D87" t="n">
-        <v>8</v>
-      </c>
-      <c r="E87" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-1.43</v>
-      </c>
-      <c r="D88" t="n">
-        <v>8</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-1.27</v>
-      </c>
-      <c r="D89" t="n">
-        <v>8</v>
-      </c>
-      <c r="E89" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="D90" t="n">
-        <v>8</v>
-      </c>
-      <c r="E90" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-0.88</v>
-      </c>
-      <c r="D91" t="n">
-        <v>8</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-0.66</v>
-      </c>
-      <c r="D92" t="n">
-        <v>8</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-0.41</v>
-      </c>
-      <c r="D93" t="n">
-        <v>8</v>
-      </c>
-      <c r="E93" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="C94" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="D94" t="n">
-        <v>8</v>
-      </c>
-      <c r="E94" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="F94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D95" t="n">
-        <v>8</v>
-      </c>
-      <c r="E95" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="D96" t="n">
-        <v>8</v>
-      </c>
-      <c r="E96" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="D97" t="n">
-        <v>8</v>
-      </c>
-      <c r="E97" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="D98" t="n">
-        <v>8</v>
-      </c>
-      <c r="E98" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D99" t="n">
-        <v>8</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="D100" t="n">
-        <v>8</v>
-      </c>
-      <c r="E100" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="D101" t="n">
-        <v>8</v>
-      </c>
-      <c r="E101" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="D102" t="n">
-        <v>8</v>
-      </c>
-      <c r="E102" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="D103" t="n">
-        <v>8</v>
-      </c>
-      <c r="E103" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="C104" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="D104" t="n">
-        <v>8</v>
-      </c>
-      <c r="E104" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C105" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D105" t="n">
-        <v>8</v>
-      </c>
-      <c r="E105" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="F105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C106" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="D106" t="n">
-        <v>8</v>
-      </c>
-      <c r="E106" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="C107" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="D107" t="n">
-        <v>8</v>
-      </c>
-      <c r="E107" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="F107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="C108" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="D108" t="n">
-        <v>8</v>
-      </c>
-      <c r="E108" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="F108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="C109" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="D109" t="n">
-        <v>8</v>
-      </c>
-      <c r="E109" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="F109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="C110" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="D110" t="n">
-        <v>8</v>
-      </c>
-      <c r="E110" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="C111" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="D111" t="n">
-        <v>8</v>
-      </c>
-      <c r="E111" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-0.88</v>
-      </c>
-      <c r="C112" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="D112" t="n">
-        <v>8</v>
-      </c>
-      <c r="E112" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="F112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-1.04</v>
-      </c>
-      <c r="C113" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="D113" t="n">
-        <v>8</v>
-      </c>
-      <c r="E113" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="F113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="C114" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="D114" t="n">
-        <v>8</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="F114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>-1.27</v>
-      </c>
-      <c r="C115" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="D115" t="n">
-        <v>8</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="F115" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>-1.29</v>
-      </c>
-      <c r="C116" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="D116" t="n">
-        <v>8</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F116" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="C117" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="D117" t="n">
-        <v>8</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F117" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>-1.37</v>
-      </c>
-      <c r="C118" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="D118" t="n">
-        <v>8</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F118" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>-1.42</v>
-      </c>
-      <c r="C119" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="D119" t="n">
-        <v>8</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F119" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="C120" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="D120" t="n">
-        <v>8</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="F120" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="C121" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="D121" t="n">
-        <v>8</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="F121" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="C122" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="D122" t="n">
-        <v>8</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F122" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>-1.59</v>
-      </c>
-      <c r="C123" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="D123" t="n">
-        <v>8</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="F123" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>-1.62</v>
-      </c>
-      <c r="C124" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="D124" t="n">
-        <v>8</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="F124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>-1.66</v>
-      </c>
-      <c r="C125" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="D125" t="n">
-        <v>8</v>
-      </c>
-      <c r="E125" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>-1.69</v>
-      </c>
-      <c r="C126" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="D126" t="n">
-        <v>8</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>-1.71</v>
-      </c>
-      <c r="C127" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="D127" t="n">
-        <v>8</v>
-      </c>
-      <c r="E127" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="F127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>-1.74</v>
-      </c>
-      <c r="C128" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="D128" t="n">
-        <v>8</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="F128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>-1.76</v>
-      </c>
-      <c r="C129" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="D129" t="n">
-        <v>8</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="F129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>-1.78</v>
-      </c>
-      <c r="C130" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="D130" t="n">
-        <v>8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="F130" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="C131" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="D131" t="n">
-        <v>8</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="F131" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="C132" t="n">
-        <v>17.74</v>
-      </c>
-      <c r="D132" t="n">
-        <v>8</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="F132" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>-1.84</v>
-      </c>
-      <c r="C133" t="n">
-        <v>18.27</v>
-      </c>
-      <c r="D133" t="n">
-        <v>8</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="F133" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>-1.85</v>
-      </c>
-      <c r="C134" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="D134" t="n">
-        <v>8</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="F134" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>-1.86</v>
-      </c>
-      <c r="C135" t="n">
-        <v>19.34</v>
-      </c>
-      <c r="D135" t="n">
-        <v>8</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="F135" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>-1.88</v>
-      </c>
-      <c r="C136" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="D136" t="n">
-        <v>8</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="F136" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>-1.89</v>
-      </c>
-      <c r="C137" t="n">
-        <v>20.41</v>
-      </c>
-      <c r="D137" t="n">
-        <v>8</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F137" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="C138" t="n">
-        <v>20.94</v>
-      </c>
-      <c r="D138" t="n">
-        <v>8</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F138" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>-1.91</v>
-      </c>
-      <c r="C139" t="n">
-        <v>21.47</v>
-      </c>
-      <c r="D139" t="n">
-        <v>8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F139" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>-1.91</v>
-      </c>
-      <c r="C140" t="n">
-        <v>22.01</v>
-      </c>
-      <c r="D140" t="n">
-        <v>8</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F140" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>-1.92</v>
-      </c>
-      <c r="C141" t="n">
-        <v>22.54</v>
-      </c>
-      <c r="D141" t="n">
-        <v>8</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="F141" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>-1.93</v>
-      </c>
-      <c r="C142" t="n">
-        <v>23.07</v>
-      </c>
-      <c r="D142" t="n">
-        <v>8</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="F142" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>-1.94</v>
-      </c>
-      <c r="C143" t="n">
-        <v>23.61</v>
-      </c>
-      <c r="D143" t="n">
-        <v>8</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="F143" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>-1.94</v>
-      </c>
-      <c r="C144" t="n">
-        <v>24.14</v>
-      </c>
-      <c r="D144" t="n">
-        <v>8</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="F144" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>-1.95</v>
-      </c>
-      <c r="C145" t="n">
-        <v>24.67</v>
-      </c>
-      <c r="D145" t="n">
-        <v>8</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="F145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>-1.95</v>
-      </c>
-      <c r="C146" t="n">
-        <v>25.21</v>
-      </c>
-      <c r="D146" t="n">
-        <v>8</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="F146" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="C147" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="D147" t="n">
-        <v>8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="F147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="C148" t="n">
-        <v>26.27</v>
-      </c>
-      <c r="D148" t="n">
-        <v>8</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="F148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="C149" t="n">
-        <v>26.81</v>
-      </c>
-      <c r="D149" t="n">
-        <v>8</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="F149" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="C150" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="D150" t="n">
-        <v>8</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="F150" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="C151" t="n">
-        <v>27.87</v>
-      </c>
-      <c r="D151" t="n">
-        <v>8</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3467,7 +2147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3515,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>48.61</v>
+        <v>51.41</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -3535,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>47.95</v>
+        <v>50.75</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -3555,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>47.3</v>
+        <v>50.1</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -3575,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>46.65</v>
+        <v>49.45</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -3595,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>46.01</v>
+        <v>48.81</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -3615,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>45.37</v>
+        <v>48.17</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -3635,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>44.74</v>
+        <v>47.54</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -3655,7 +2335,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>44.11</v>
+        <v>46.91</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -3675,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>43.48</v>
+        <v>46.29</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -3695,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>42.86</v>
+        <v>45.66</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -3715,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>42.24</v>
+        <v>45.04</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -3735,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>41.62</v>
+        <v>44.42</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -3755,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>41</v>
+        <v>43.81</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -3775,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>40.39</v>
+        <v>43.19</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -3795,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>39.78</v>
+        <v>42.58</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -3815,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>39.17</v>
+        <v>41.97</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -3835,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38.56</v>
+        <v>41.36</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -3855,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>37.95</v>
+        <v>40.75</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -3875,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>37.34</v>
+        <v>40.14</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -3895,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>36.73</v>
+        <v>39.54</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -3915,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>36.12</v>
+        <v>38.93</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -3935,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>35.52</v>
+        <v>38.32</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -3955,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>34.91</v>
+        <v>37.72</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -3975,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>34.31</v>
+        <v>37.11</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -3995,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>33.71</v>
+        <v>36.51</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -4015,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>33.1</v>
+        <v>35.91</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -4035,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>32.5</v>
+        <v>35.3</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -4055,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>31.9</v>
+        <v>34.7</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -4075,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>31.29</v>
+        <v>34.1</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -4095,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>30.69</v>
+        <v>33.5</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -4115,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>30.09</v>
+        <v>32.89</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -4135,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>29.49</v>
+        <v>32.29</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -4155,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>28.89</v>
+        <v>31.69</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -4175,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>28.29</v>
+        <v>31.09</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -4195,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>27.68</v>
+        <v>30.49</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -4215,10 +2895,10 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>27.08</v>
+        <v>29.89</v>
       </c>
       <c r="D37" t="n">
-        <v>9.01</v>
+        <v>8.51</v>
       </c>
       <c r="E37" t="n">
         <v>-1.57</v>
@@ -4235,10 +2915,10 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>26.48</v>
+        <v>29.32</v>
       </c>
       <c r="D38" t="n">
-        <v>9.01</v>
+        <v>8.07</v>
       </c>
       <c r="E38" t="n">
         <v>-1.57</v>
@@ -4255,10 +2935,10 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>25.88</v>
+        <v>28.78</v>
       </c>
       <c r="D39" t="n">
-        <v>9.01</v>
+        <v>7.67</v>
       </c>
       <c r="E39" t="n">
         <v>-1.57</v>
@@ -4275,10 +2955,10 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>25.28</v>
+        <v>28.27</v>
       </c>
       <c r="D40" t="n">
-        <v>8.51</v>
+        <v>7.32</v>
       </c>
       <c r="E40" t="n">
         <v>-1.57</v>
@@ -4295,10 +2975,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>24.71</v>
+        <v>27.78</v>
       </c>
       <c r="D41" t="n">
-        <v>8.06</v>
+        <v>7.01</v>
       </c>
       <c r="E41" t="n">
         <v>-1.57</v>
@@ -4315,10 +2995,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>24.18</v>
+        <v>27.32</v>
       </c>
       <c r="D42" t="n">
-        <v>7.67</v>
+        <v>6.73</v>
       </c>
       <c r="E42" t="n">
         <v>-1.57</v>
@@ -4335,10 +3015,10 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>23.66</v>
+        <v>26.87</v>
       </c>
       <c r="D43" t="n">
-        <v>7.32</v>
+        <v>5.98</v>
       </c>
       <c r="E43" t="n">
         <v>-1.57</v>
@@ -4355,10 +3035,10 @@
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>23.18</v>
+        <v>26.47</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>5.32</v>
       </c>
       <c r="E44" t="n">
         <v>-1.57</v>
@@ -4375,10 +3055,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>22.71</v>
+        <v>26.11</v>
       </c>
       <c r="D45" t="n">
-        <v>6.73</v>
+        <v>4.73</v>
       </c>
       <c r="E45" t="n">
         <v>-1.57</v>
@@ -4395,10 +3075,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>22.26</v>
+        <v>25.8</v>
       </c>
       <c r="D46" t="n">
-        <v>5.98</v>
+        <v>4.2</v>
       </c>
       <c r="E46" t="n">
         <v>-1.57</v>
@@ -4415,10 +3095,10 @@
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>21.86</v>
+        <v>25.52</v>
       </c>
       <c r="D47" t="n">
-        <v>5.31</v>
+        <v>3.73</v>
       </c>
       <c r="E47" t="n">
         <v>-1.57</v>
@@ -4435,10 +3115,10 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>21.51</v>
+        <v>25.27</v>
       </c>
       <c r="D48" t="n">
-        <v>4.72</v>
+        <v>3.32</v>
       </c>
       <c r="E48" t="n">
         <v>-1.57</v>
@@ -4455,10 +3135,10 @@
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>21.19</v>
+        <v>25.05</v>
       </c>
       <c r="D49" t="n">
-        <v>4.2</v>
+        <v>2.95</v>
       </c>
       <c r="E49" t="n">
         <v>-1.57</v>
@@ -4475,10 +3155,10 @@
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>20.91</v>
+        <v>24.85</v>
       </c>
       <c r="D50" t="n">
-        <v>3.73</v>
+        <v>2.62</v>
       </c>
       <c r="E50" t="n">
         <v>-1.57</v>
@@ -4495,10 +3175,10 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>20.66</v>
+        <v>24.68</v>
       </c>
       <c r="D51" t="n">
-        <v>3.32</v>
+        <v>2.33</v>
       </c>
       <c r="E51" t="n">
         <v>-1.57</v>
@@ -4515,10 +3195,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>20.44</v>
+        <v>24.52</v>
       </c>
       <c r="D52" t="n">
-        <v>2.95</v>
+        <v>2.07</v>
       </c>
       <c r="E52" t="n">
         <v>-1.57</v>
@@ -4535,10 +3215,10 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>20.25</v>
+        <v>24.38</v>
       </c>
       <c r="D53" t="n">
-        <v>2.62</v>
+        <v>1.84</v>
       </c>
       <c r="E53" t="n">
         <v>-1.57</v>
@@ -4555,10 +3235,10 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>20.07</v>
+        <v>24.26</v>
       </c>
       <c r="D54" t="n">
-        <v>2.33</v>
+        <v>1.64</v>
       </c>
       <c r="E54" t="n">
         <v>-1.57</v>
@@ -4575,10 +3255,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>19.92</v>
+        <v>24.15</v>
       </c>
       <c r="D55" t="n">
-        <v>2.07</v>
+        <v>1.46</v>
       </c>
       <c r="E55" t="n">
         <v>-1.57</v>
@@ -4595,10 +3275,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>19.78</v>
+        <v>24.05</v>
       </c>
       <c r="D56" t="n">
-        <v>1.84</v>
+        <v>1.29</v>
       </c>
       <c r="E56" t="n">
         <v>-1.57</v>
@@ -4615,10 +3295,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>19.66</v>
+        <v>23.97</v>
       </c>
       <c r="D57" t="n">
-        <v>1.64</v>
+        <v>1.15</v>
       </c>
       <c r="E57" t="n">
         <v>-1.57</v>
@@ -4635,10 +3315,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>19.55</v>
+        <v>23.89</v>
       </c>
       <c r="D58" t="n">
-        <v>1.45</v>
+        <v>1.02</v>
       </c>
       <c r="E58" t="n">
         <v>-1.57</v>
@@ -4655,10 +3335,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>19.45</v>
+        <v>23.82</v>
       </c>
       <c r="D59" t="n">
-        <v>1.29</v>
+        <v>0.91</v>
       </c>
       <c r="E59" t="n">
         <v>-1.57</v>
@@ -4675,10 +3355,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>19.36</v>
+        <v>23.76</v>
       </c>
       <c r="D60" t="n">
-        <v>1.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E60" t="n">
         <v>-1.57</v>
@@ -4695,10 +3375,10 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>19.29</v>
+        <v>23.71</v>
       </c>
       <c r="D61" t="n">
-        <v>1.02</v>
+        <v>0.72</v>
       </c>
       <c r="E61" t="n">
         <v>-1.57</v>
@@ -4715,10 +3395,10 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>19.22</v>
+        <v>23.66</v>
       </c>
       <c r="D62" t="n">
-        <v>0.91</v>
+        <v>0.64</v>
       </c>
       <c r="E62" t="n">
         <v>-1.57</v>
@@ -4735,10 +3415,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>19.16</v>
+        <v>23.62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="E63" t="n">
         <v>-1.57</v>
@@ -4755,10 +3435,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>19.1</v>
+        <v>23.58</v>
       </c>
       <c r="D64" t="n">
-        <v>0.72</v>
+        <v>0.5</v>
       </c>
       <c r="E64" t="n">
         <v>-1.57</v>
@@ -4775,10 +3455,10 @@
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>19.06</v>
+        <v>23.55</v>
       </c>
       <c r="D65" t="n">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="E65" t="n">
         <v>-1.57</v>
@@ -4795,10 +3475,10 @@
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>19.01</v>
+        <v>23.52</v>
       </c>
       <c r="D66" t="n">
-        <v>0.57</v>
+        <v>0.4</v>
       </c>
       <c r="E66" t="n">
         <v>-1.57</v>
@@ -4815,10 +3495,10 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>18.98</v>
+        <v>23.49</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="E67" t="n">
         <v>-1.57</v>
@@ -4835,10 +3515,10 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>18.94</v>
+        <v>23.47</v>
       </c>
       <c r="D68" t="n">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="E68" t="n">
         <v>-1.57</v>
@@ -4855,10 +3535,10 @@
         <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>18.91</v>
+        <v>23.45</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="E69" t="n">
         <v>-1.57</v>
@@ -4875,10 +3555,10 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>18.89</v>
+        <v>23.43</v>
       </c>
       <c r="D70" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="E70" t="n">
         <v>-1.57</v>
@@ -4895,10 +3575,10 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>18.86</v>
+        <v>23.41</v>
       </c>
       <c r="D71" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="E71" t="n">
         <v>-1.57</v>
@@ -4915,10 +3595,10 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>18.84</v>
+        <v>23.4</v>
       </c>
       <c r="D72" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="E72" t="n">
         <v>-1.57</v>
@@ -4935,10 +3615,10 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>18.82</v>
+        <v>23.38</v>
       </c>
       <c r="D73" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="E73" t="n">
         <v>-1.57</v>
@@ -4955,10 +3635,10 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>18.81</v>
+        <v>23.37</v>
       </c>
       <c r="D74" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="E74" t="n">
         <v>-1.57</v>
@@ -4975,10 +3655,10 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>18.79</v>
+        <v>23.36</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="E75" t="n">
         <v>-1.57</v>
@@ -4995,10 +3675,10 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>18.78</v>
+        <v>23.35</v>
       </c>
       <c r="D76" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="E76" t="n">
         <v>-1.57</v>
@@ -5015,10 +3695,10 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>18.77</v>
+        <v>23.34</v>
       </c>
       <c r="D77" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="E77" t="n">
         <v>-1.57</v>
@@ -5035,10 +3715,10 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>18.76</v>
+        <v>23.34</v>
       </c>
       <c r="D78" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="E78" t="n">
         <v>-1.57</v>
@@ -5055,10 +3735,10 @@
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>18.75</v>
+        <v>23.33</v>
       </c>
       <c r="D79" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E79" t="n">
         <v>-1.57</v>
@@ -5075,10 +3755,10 @@
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>18.74</v>
+        <v>23.32</v>
       </c>
       <c r="D80" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E80" t="n">
         <v>-1.57</v>
@@ -5095,10 +3775,10 @@
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>18.73</v>
+        <v>23.32</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1</v>
+        <v>0.57</v>
       </c>
       <c r="E81" t="n">
         <v>-1.57</v>
@@ -5115,10 +3795,10 @@
         <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>18.73</v>
+        <v>23.28</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>-1.57</v>
@@ -5135,10 +3815,10 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>18.72</v>
+        <v>23.21</v>
       </c>
       <c r="D83" t="n">
-        <v>0.08</v>
+        <v>1.39</v>
       </c>
       <c r="E83" t="n">
         <v>-1.57</v>
@@ -5155,10 +3835,10 @@
         <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>18.72</v>
+        <v>23.12</v>
       </c>
       <c r="D84" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.74</v>
       </c>
       <c r="E84" t="n">
         <v>-1.57</v>
@@ -5175,1335 +3855,15 @@
         <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>18.71</v>
+        <v>23.01</v>
       </c>
       <c r="D85" t="n">
-        <v>0.06</v>
+        <v>2.05</v>
       </c>
       <c r="E85" t="n">
         <v>-1.57</v>
       </c>
       <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>2</v>
-      </c>
-      <c r="C86" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>2</v>
-      </c>
-      <c r="C87" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>2</v>
-      </c>
-      <c r="C88" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>2</v>
-      </c>
-      <c r="C89" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>2</v>
-      </c>
-      <c r="C90" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2</v>
-      </c>
-      <c r="C91" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>2</v>
-      </c>
-      <c r="C92" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>2</v>
-      </c>
-      <c r="C93" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>2</v>
-      </c>
-      <c r="C94" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>2</v>
-      </c>
-      <c r="C95" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>2</v>
-      </c>
-      <c r="C96" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>2</v>
-      </c>
-      <c r="C97" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E97" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>2</v>
-      </c>
-      <c r="C98" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E98" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>2</v>
-      </c>
-      <c r="C99" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>2</v>
-      </c>
-      <c r="C100" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E100" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>2</v>
-      </c>
-      <c r="C101" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E101" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>2</v>
-      </c>
-      <c r="C102" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>2</v>
-      </c>
-      <c r="C103" t="n">
-        <v>18.49</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>2</v>
-      </c>
-      <c r="C104" t="n">
-        <v>18.38</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>2</v>
-      </c>
-      <c r="C105" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="D105" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>2</v>
-      </c>
-      <c r="C106" t="n">
-        <v>18.09</v>
-      </c>
-      <c r="D106" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>2</v>
-      </c>
-      <c r="C107" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="D107" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="E107" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>2</v>
-      </c>
-      <c r="C108" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="D108" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="E108" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>2</v>
-      </c>
-      <c r="C109" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="D109" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="E109" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>2</v>
-      </c>
-      <c r="C110" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="D110" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="E110" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>2</v>
-      </c>
-      <c r="C111" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="D111" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="E111" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>2</v>
-      </c>
-      <c r="C112" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="D112" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="E112" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>2</v>
-      </c>
-      <c r="C113" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D113" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="E113" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>2</v>
-      </c>
-      <c r="C114" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="D114" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="E114" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>2</v>
-      </c>
-      <c r="C115" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="D115" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="E115" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F115" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>2</v>
-      </c>
-      <c r="C116" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="D116" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="E116" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F116" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>2</v>
-      </c>
-      <c r="C117" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="D117" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="E117" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F117" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>2</v>
-      </c>
-      <c r="C118" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D118" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="E118" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F118" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>2</v>
-      </c>
-      <c r="C119" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D119" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="E119" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F119" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="C120" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="D120" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="E120" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="F120" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="C121" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="D121" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="E121" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="F121" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="C122" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="D122" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="E122" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="F122" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="C123" t="n">
-        <v>11</v>
-      </c>
-      <c r="D123" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E123" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F123" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="C124" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="D124" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="E124" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="F124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C125" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="D125" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="E125" t="n">
-        <v>-1.62</v>
-      </c>
-      <c r="F125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C126" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="D126" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="E126" t="n">
-        <v>-1.65</v>
-      </c>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="C127" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="D127" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E127" t="n">
-        <v>-1.68</v>
-      </c>
-      <c r="F127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="C128" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="D128" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="E128" t="n">
-        <v>-1.71</v>
-      </c>
-      <c r="F128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="C129" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="D129" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="E129" t="n">
-        <v>-1.75</v>
-      </c>
-      <c r="F129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="C130" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D130" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="E130" t="n">
-        <v>-1.78</v>
-      </c>
-      <c r="F130" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C131" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="D131" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="E131" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="F131" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="C132" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="D132" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="E132" t="n">
-        <v>-1.86</v>
-      </c>
-      <c r="F132" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="C133" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="D133" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="E133" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="F133" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C134" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D134" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="E134" t="n">
-        <v>-1.94</v>
-      </c>
-      <c r="F134" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="C135" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D135" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="E135" t="n">
-        <v>-1.98</v>
-      </c>
-      <c r="F135" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="C136" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D136" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="E136" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="F136" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>-0.78</v>
-      </c>
-      <c r="C137" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="D137" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="E137" t="n">
-        <v>-2.06</v>
-      </c>
-      <c r="F137" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="C138" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="D138" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="E138" t="n">
-        <v>-2.11</v>
-      </c>
-      <c r="F138" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>-1.54</v>
-      </c>
-      <c r="C139" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D139" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E139" t="n">
-        <v>-2.15</v>
-      </c>
-      <c r="F139" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>-1.95</v>
-      </c>
-      <c r="C140" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="D140" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="E140" t="n">
-        <v>-2.19</v>
-      </c>
-      <c r="F140" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>-2.38</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D141" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="E141" t="n">
-        <v>-2.24</v>
-      </c>
-      <c r="F141" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>-2.83</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="D142" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="E142" t="n">
-        <v>-2.28</v>
-      </c>
-      <c r="F142" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>-3.29</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="D143" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="E143" t="n">
-        <v>-2.33</v>
-      </c>
-      <c r="F143" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>-3.78</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="D144" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E144" t="n">
-        <v>-2.37</v>
-      </c>
-      <c r="F144" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>-4.28</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="D145" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="E145" t="n">
-        <v>-2.42</v>
-      </c>
-      <c r="F145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>-4.79</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D146" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E146" t="n">
-        <v>-2.46</v>
-      </c>
-      <c r="F146" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>-5.32</v>
-      </c>
-      <c r="C147" t="n">
-        <v>-0.14</v>
-      </c>
-      <c r="D147" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E147" t="n">
-        <v>-2.51</v>
-      </c>
-      <c r="F147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>-5.86</v>
-      </c>
-      <c r="C148" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="D148" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="E148" t="n">
-        <v>-2.56</v>
-      </c>
-      <c r="F148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>-6.41</v>
-      </c>
-      <c r="C149" t="n">
-        <v>-0.63</v>
-      </c>
-      <c r="D149" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="E149" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="F149" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>-6.97</v>
-      </c>
-      <c r="C150" t="n">
-        <v>-0.83</v>
-      </c>
-      <c r="D150" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="E150" t="n">
-        <v>-2.65</v>
-      </c>
-      <c r="F150" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>-7.54</v>
-      </c>
-      <c r="C151" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="D151" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="E151" t="n">
-        <v>-2.69</v>
-      </c>
-      <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6518,7 +3878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6563,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-59.45</v>
+        <v>-58.07</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -6583,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-58.79</v>
+        <v>-57.41</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -6603,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-58.13</v>
+        <v>-56.76</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -6623,7 +3983,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-57.49</v>
+        <v>-56.11</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -6643,7 +4003,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-56.84</v>
+        <v>-55.47</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -6663,7 +4023,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-56.21</v>
+        <v>-54.83</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -6683,7 +4043,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-55.57</v>
+        <v>-54.2</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -6703,7 +4063,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-54.95</v>
+        <v>-53.57</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -6723,7 +4083,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-54.32</v>
+        <v>-52.94</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -6743,7 +4103,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-53.7</v>
+        <v>-52.32</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -6763,7 +4123,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-53.08</v>
+        <v>-51.7</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -6783,7 +4143,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-52.46</v>
+        <v>-51.08</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -6803,7 +4163,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-51.84</v>
+        <v>-50.47</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -6823,7 +4183,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-51.23</v>
+        <v>-49.85</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -6843,7 +4203,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-50.61</v>
+        <v>-49.24</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -6863,7 +4223,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-50</v>
+        <v>-48.63</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -6883,7 +4243,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-49.39</v>
+        <v>-48.02</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -6903,7 +4263,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-48.78</v>
+        <v>-47.41</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -6923,7 +4283,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-48.18</v>
+        <v>-46.8</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -6943,7 +4303,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-47.57</v>
+        <v>-46.19</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -6963,7 +4323,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-46.96</v>
+        <v>-45.59</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -6983,7 +4343,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-46.36</v>
+        <v>-44.98</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -7003,7 +4363,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-45.75</v>
+        <v>-44.38</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -7023,7 +4383,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-45.15</v>
+        <v>-43.77</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -7043,7 +4403,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-44.54</v>
+        <v>-43.17</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -7063,7 +4423,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-43.94</v>
+        <v>-42.56</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -7083,7 +4443,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-43.34</v>
+        <v>-41.96</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -7103,7 +4463,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-42.73</v>
+        <v>-41.36</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -7123,7 +4483,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-42.13</v>
+        <v>-40.76</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -7143,7 +4503,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-41.53</v>
+        <v>-40.15</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -7163,7 +4523,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-40.93</v>
+        <v>-39.55</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -7183,7 +4543,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-40.33</v>
+        <v>-38.95</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -7203,7 +4563,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-39.72</v>
+        <v>-38.35</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -7223,7 +4583,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-39.12</v>
+        <v>-37.75</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -7243,7 +4603,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-38.52</v>
+        <v>-37.15</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
@@ -7263,7 +4623,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-37.92</v>
+        <v>-36.55</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
@@ -7283,7 +4643,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-37.32</v>
+        <v>-35.94</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
@@ -7303,7 +4663,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-36.72</v>
+        <v>-35.34</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
@@ -7323,7 +4683,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-36.12</v>
+        <v>-34.74</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -7343,7 +4703,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-35.52</v>
+        <v>-34.14</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
@@ -7363,7 +4723,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-34.92</v>
+        <v>-33.54</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
@@ -7383,7 +4743,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-34.32</v>
+        <v>-32.94</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
@@ -7403,7 +4763,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-33.72</v>
+        <v>-32.34</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -7423,7 +4783,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-33.12</v>
+        <v>-31.74</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
@@ -7443,7 +4803,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-32.51</v>
+        <v>-31.14</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -7463,7 +4823,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-31.91</v>
+        <v>-30.54</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
@@ -7483,13 +4843,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-31.31</v>
+        <v>-29.94</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E48" t="n">
         <v>-0</v>
@@ -7503,13 +4863,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-30.71</v>
+        <v>-29.37</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>8.06</v>
       </c>
       <c r="E49" t="n">
         <v>-0</v>
@@ -7523,13 +4883,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-30.11</v>
+        <v>-28.84</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>7.66</v>
       </c>
       <c r="E50" t="n">
         <v>-0</v>
@@ -7543,13 +4903,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-29.51</v>
+        <v>-28.32</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E51" t="n">
         <v>-0</v>
@@ -7563,13 +4923,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-28.91</v>
+        <v>-27.84</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
         <v>-0</v>
@@ -7583,13 +4943,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-28.31</v>
+        <v>-27.37</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E53" t="n">
         <v>-0</v>
@@ -7603,13 +4963,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-27.71</v>
+        <v>-26.92</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>5.98</v>
       </c>
       <c r="E54" t="n">
         <v>-0</v>
@@ -7623,13 +4983,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-27.11</v>
+        <v>-26.52</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E55" t="n">
         <v>-0</v>
@@ -7643,13 +5003,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-26.51</v>
+        <v>-26.17</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E56" t="n">
         <v>-0</v>
@@ -7663,13 +5023,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-25.91</v>
+        <v>-25.85</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E57" t="n">
         <v>-0</v>
@@ -7683,13 +5043,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-25.31</v>
+        <v>-25.57</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8.5</v>
+        <v>3.73</v>
       </c>
       <c r="E58" t="n">
         <v>-0</v>
@@ -7703,13 +5063,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-24.75</v>
+        <v>-25.33</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>8.06</v>
+        <v>3.32</v>
       </c>
       <c r="E59" t="n">
         <v>-0</v>
@@ -7723,13 +5083,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-24.21</v>
+        <v>-25.11</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7.66</v>
+        <v>2.95</v>
       </c>
       <c r="E60" t="n">
         <v>-0</v>
@@ -7743,13 +5103,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-23.7</v>
+        <v>-24.91</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>7.31</v>
+        <v>2.62</v>
       </c>
       <c r="E61" t="n">
         <v>-0</v>
@@ -7763,13 +5123,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-23.21</v>
+        <v>-24.73</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>7</v>
+        <v>2.33</v>
       </c>
       <c r="E62" t="n">
         <v>-0</v>
@@ -7783,13 +5143,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-22.74</v>
+        <v>-24.58</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6.72</v>
+        <v>2.07</v>
       </c>
       <c r="E63" t="n">
         <v>-0</v>
@@ -7803,13 +5163,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-22.3</v>
+        <v>-24.44</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>5.97</v>
+        <v>1.84</v>
       </c>
       <c r="E64" t="n">
         <v>-0</v>
@@ -7823,13 +5183,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-21.9</v>
+        <v>-24.32</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>5.31</v>
+        <v>1.64</v>
       </c>
       <c r="E65" t="n">
         <v>-0</v>
@@ -7843,13 +5203,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-21.54</v>
+        <v>-24.21</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>4.72</v>
+        <v>1.45</v>
       </c>
       <c r="E66" t="n">
         <v>-0</v>
@@ -7863,13 +5223,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-21.23</v>
+        <v>-24.11</v>
       </c>
       <c r="C67" t="n">
         <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>4.2</v>
+        <v>1.29</v>
       </c>
       <c r="E67" t="n">
         <v>-0</v>
@@ -7883,13 +5243,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-20.95</v>
+        <v>-24.03</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>3.73</v>
+        <v>1.15</v>
       </c>
       <c r="E68" t="n">
         <v>-0</v>
@@ -7903,13 +5263,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-20.7</v>
+        <v>-23.95</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>3.31</v>
+        <v>1.02</v>
       </c>
       <c r="E69" t="n">
         <v>-0</v>
@@ -7923,13 +5283,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-20.48</v>
+        <v>-23.88</v>
       </c>
       <c r="C70" t="n">
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>2.95</v>
+        <v>0.91</v>
       </c>
       <c r="E70" t="n">
         <v>-0</v>
@@ -7943,13 +5303,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-20.28</v>
+        <v>-23.82</v>
       </c>
       <c r="C71" t="n">
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>2.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E71" t="n">
         <v>-0</v>
@@ -7963,13 +5323,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-20.11</v>
+        <v>-23.77</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>2.33</v>
+        <v>0.72</v>
       </c>
       <c r="E72" t="n">
         <v>-0</v>
@@ -7983,13 +5343,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-19.95</v>
+        <v>-23.72</v>
       </c>
       <c r="C73" t="n">
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>2.07</v>
+        <v>0.64</v>
       </c>
       <c r="E73" t="n">
         <v>-0</v>
@@ -8003,16 +5363,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-19.82</v>
+        <v>-23.68</v>
       </c>
       <c r="C74" t="n">
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>1.84</v>
+        <v>0.57</v>
       </c>
       <c r="E74" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -8023,13 +5383,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-19.69</v>
+        <v>-23.64</v>
       </c>
       <c r="C75" t="n">
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>1.64</v>
+        <v>0.5</v>
       </c>
       <c r="E75" t="n">
         <v>-0</v>
@@ -8043,16 +5403,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-19.58</v>
+        <v>-23.61</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>1.45</v>
+        <v>0.45</v>
       </c>
       <c r="E76" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -8063,13 +5423,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-19.49</v>
+        <v>-23.58</v>
       </c>
       <c r="C77" t="n">
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>1.29</v>
+        <v>0.4</v>
       </c>
       <c r="E77" t="n">
         <v>-0</v>
@@ -8083,16 +5443,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-19.4</v>
+        <v>-23.55</v>
       </c>
       <c r="C78" t="n">
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>1.15</v>
+        <v>0.35</v>
       </c>
       <c r="E78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -8103,13 +5463,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-19.32</v>
+        <v>-23.53</v>
       </c>
       <c r="C79" t="n">
         <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>1.02</v>
+        <v>0.31</v>
       </c>
       <c r="E79" t="n">
         <v>-0</v>
@@ -8123,16 +5483,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-19.26</v>
+        <v>-23.5</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>0.91</v>
+        <v>0.28</v>
       </c>
       <c r="E80" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -8143,13 +5503,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-19.2</v>
+        <v>-23.49</v>
       </c>
       <c r="C81" t="n">
         <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="E81" t="n">
         <v>-0</v>
@@ -8163,16 +5523,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-19.14</v>
+        <v>-23.47</v>
       </c>
       <c r="C82" t="n">
         <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>0.72</v>
+        <v>0.22</v>
       </c>
       <c r="E82" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -8183,13 +5543,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-19.09</v>
+        <v>-23.45</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="E83" t="n">
         <v>-0</v>
@@ -8203,16 +5563,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-19.05</v>
+        <v>-23.44</v>
       </c>
       <c r="C84" t="n">
         <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>0.57</v>
+        <v>0.17</v>
       </c>
       <c r="E84" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -8223,1338 +5583,18 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-19.01</v>
+        <v>-23.43</v>
       </c>
       <c r="C85" t="n">
         <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="E85" t="n">
         <v>-0</v>
       </c>
       <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-18.98</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-18.95</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-18.92</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-18.9</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-18.88</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-18.86</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-18.84</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-18.83</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>-18.82</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>-18.8</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>-18.79</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>-18.79</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E97" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>-18.78</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>-18.77</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>-18.76</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>-18.76</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E101" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>-18.76</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>-18.75</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>-18.75</v>
-      </c>
-      <c r="C104" t="n">
-        <v>2</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>-18.75</v>
-      </c>
-      <c r="C105" t="n">
-        <v>2</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>-18.74</v>
-      </c>
-      <c r="C106" t="n">
-        <v>2</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>-18.74</v>
-      </c>
-      <c r="C107" t="n">
-        <v>2</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
-      <c r="F107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>-18.74</v>
-      </c>
-      <c r="C108" t="n">
-        <v>2</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>-18.74</v>
-      </c>
-      <c r="C109" t="n">
-        <v>2</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E109" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-18.74</v>
-      </c>
-      <c r="C110" t="n">
-        <v>2</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E110" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-18.74</v>
-      </c>
-      <c r="C111" t="n">
-        <v>2</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-18.73</v>
-      </c>
-      <c r="C112" t="n">
-        <v>2</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-18.73</v>
-      </c>
-      <c r="C113" t="n">
-        <v>2</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E113" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>-18.73</v>
-      </c>
-      <c r="C114" t="n">
-        <v>2</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E114" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>-18.73</v>
-      </c>
-      <c r="C115" t="n">
-        <v>2</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>-18.73</v>
-      </c>
-      <c r="C116" t="n">
-        <v>2</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>-18.73</v>
-      </c>
-      <c r="C117" t="n">
-        <v>2</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E117" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F117" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>-18.73</v>
-      </c>
-      <c r="C118" t="n">
-        <v>2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E118" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F118" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>-18.73</v>
-      </c>
-      <c r="C119" t="n">
-        <v>2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>-18.73</v>
-      </c>
-      <c r="C120" t="n">
-        <v>2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>-18.73</v>
-      </c>
-      <c r="C121" t="n">
-        <v>2</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E121" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F121" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>-18.73</v>
-      </c>
-      <c r="C122" t="n">
-        <v>2</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E122" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F122" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>-18.73</v>
-      </c>
-      <c r="C123" t="n">
-        <v>2</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>-18.73</v>
-      </c>
-      <c r="C124" t="n">
-        <v>2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>-18.69</v>
-      </c>
-      <c r="C125" t="n">
-        <v>2</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E125" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>-18.63</v>
-      </c>
-      <c r="C126" t="n">
-        <v>2</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>-18.54</v>
-      </c>
-      <c r="C127" t="n">
-        <v>2</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E127" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>-18.43</v>
-      </c>
-      <c r="C128" t="n">
-        <v>2</v>
-      </c>
-      <c r="D128" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0</v>
-      </c>
-      <c r="F128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>-18.29</v>
-      </c>
-      <c r="C129" t="n">
-        <v>2</v>
-      </c>
-      <c r="D129" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>-18.14</v>
-      </c>
-      <c r="C130" t="n">
-        <v>2</v>
-      </c>
-      <c r="D130" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0</v>
-      </c>
-      <c r="F130" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>-17.94</v>
-      </c>
-      <c r="C131" t="n">
-        <v>2</v>
-      </c>
-      <c r="D131" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>-17.69</v>
-      </c>
-      <c r="C132" t="n">
-        <v>2</v>
-      </c>
-      <c r="D132" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0</v>
-      </c>
-      <c r="F132" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>-17.41</v>
-      </c>
-      <c r="C133" t="n">
-        <v>2</v>
-      </c>
-      <c r="D133" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F133" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>-17.09</v>
-      </c>
-      <c r="C134" t="n">
-        <v>2</v>
-      </c>
-      <c r="D134" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0</v>
-      </c>
-      <c r="F134" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>-16.74</v>
-      </c>
-      <c r="C135" t="n">
-        <v>2</v>
-      </c>
-      <c r="D135" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>-16.36</v>
-      </c>
-      <c r="C136" t="n">
-        <v>2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>-15.95</v>
-      </c>
-      <c r="C137" t="n">
-        <v>2</v>
-      </c>
-      <c r="D137" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0</v>
-      </c>
-      <c r="F137" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>-15.53</v>
-      </c>
-      <c r="C138" t="n">
-        <v>2</v>
-      </c>
-      <c r="D138" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>-15.08</v>
-      </c>
-      <c r="C139" t="n">
-        <v>2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>-14.62</v>
-      </c>
-      <c r="C140" t="n">
-        <v>2</v>
-      </c>
-      <c r="D140" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0</v>
-      </c>
-      <c r="F140" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>-14.14</v>
-      </c>
-      <c r="C141" t="n">
-        <v>2</v>
-      </c>
-      <c r="D141" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0</v>
-      </c>
-      <c r="F141" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>-13.65</v>
-      </c>
-      <c r="C142" t="n">
-        <v>2</v>
-      </c>
-      <c r="D142" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0</v>
-      </c>
-      <c r="F142" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>-13.15</v>
-      </c>
-      <c r="C143" t="n">
-        <v>2</v>
-      </c>
-      <c r="D143" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0</v>
-      </c>
-      <c r="F143" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>-12.64</v>
-      </c>
-      <c r="C144" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="D144" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F144" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>-12.11</v>
-      </c>
-      <c r="C145" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="D145" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>-11.58</v>
-      </c>
-      <c r="C146" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="D146" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F146" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>-11.04</v>
-      </c>
-      <c r="C147" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="D147" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E147" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>-10.5</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="D148" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="E148" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="F148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>-9.949999999999999</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D149" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="E149" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="F149" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>-9.41</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D150" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="E150" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="F150" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>-8.859999999999999</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D151" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E151" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9569,7 +5609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9617,7 +5657,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-48.08</v>
+        <v>-46.48</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -9637,7 +5677,7 @@
         <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-47.42</v>
+        <v>-45.82</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -9657,7 +5697,7 @@
         <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>-46.77</v>
+        <v>-45.17</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -9677,7 +5717,7 @@
         <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>-46.12</v>
+        <v>-44.52</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -9697,7 +5737,7 @@
         <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-45.48</v>
+        <v>-43.88</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -9717,7 +5757,7 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-44.84</v>
+        <v>-43.25</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -9737,7 +5777,7 @@
         <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>-44.21</v>
+        <v>-42.61</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -9757,7 +5797,7 @@
         <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>-43.58</v>
+        <v>-41.98</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -9777,7 +5817,7 @@
         <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>-42.95</v>
+        <v>-41.36</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -9797,7 +5837,7 @@
         <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-42.33</v>
+        <v>-40.73</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -9817,7 +5857,7 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-41.71</v>
+        <v>-40.11</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -9837,7 +5877,7 @@
         <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>-41.09</v>
+        <v>-39.5</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -9857,7 +5897,7 @@
         <v>-2</v>
       </c>
       <c r="C14" t="n">
-        <v>-40.47</v>
+        <v>-38.88</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -9877,7 +5917,7 @@
         <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>-39.86</v>
+        <v>-38.27</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -9897,7 +5937,7 @@
         <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>-39.25</v>
+        <v>-37.65</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -9917,7 +5957,7 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-38.64</v>
+        <v>-37.04</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -9937,7 +5977,7 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>-38.03</v>
+        <v>-36.43</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -9957,7 +5997,7 @@
         <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>-37.42</v>
+        <v>-35.82</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -9977,7 +6017,7 @@
         <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>-36.81</v>
+        <v>-35.21</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -9997,7 +6037,7 @@
         <v>-2</v>
       </c>
       <c r="C21" t="n">
-        <v>-36.2</v>
+        <v>-34.61</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -10017,7 +6057,7 @@
         <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>-35.6</v>
+        <v>-34</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -10037,7 +6077,7 @@
         <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>-34.99</v>
+        <v>-33.39</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -10057,7 +6097,7 @@
         <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>-34.39</v>
+        <v>-32.79</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -10077,7 +6117,7 @@
         <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>-33.78</v>
+        <v>-32.19</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -10097,7 +6137,7 @@
         <v>-2</v>
       </c>
       <c r="C26" t="n">
-        <v>-33.18</v>
+        <v>-31.58</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -10117,7 +6157,7 @@
         <v>-2</v>
       </c>
       <c r="C27" t="n">
-        <v>-32.57</v>
+        <v>-30.98</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -10137,7 +6177,7 @@
         <v>-2</v>
       </c>
       <c r="C28" t="n">
-        <v>-31.97</v>
+        <v>-30.37</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -10157,7 +6197,7 @@
         <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>-31.37</v>
+        <v>-29.77</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -10177,7 +6217,7 @@
         <v>-2</v>
       </c>
       <c r="C30" t="n">
-        <v>-30.76</v>
+        <v>-29.17</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -10197,7 +6237,7 @@
         <v>-2</v>
       </c>
       <c r="C31" t="n">
-        <v>-30.16</v>
+        <v>-28.57</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -10217,7 +6257,7 @@
         <v>-2</v>
       </c>
       <c r="C32" t="n">
-        <v>-29.56</v>
+        <v>-27.97</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -10237,7 +6277,7 @@
         <v>-2</v>
       </c>
       <c r="C33" t="n">
-        <v>-28.96</v>
+        <v>-27.36</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -10257,7 +6297,7 @@
         <v>-2</v>
       </c>
       <c r="C34" t="n">
-        <v>-28.36</v>
+        <v>-26.76</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -10277,7 +6317,7 @@
         <v>-2</v>
       </c>
       <c r="C35" t="n">
-        <v>-27.76</v>
+        <v>-26.16</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -10297,7 +6337,7 @@
         <v>-2</v>
       </c>
       <c r="C36" t="n">
-        <v>-27.15</v>
+        <v>-25.56</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -10317,7 +6357,7 @@
         <v>-2</v>
       </c>
       <c r="C37" t="n">
-        <v>-26.55</v>
+        <v>-24.96</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -10337,7 +6377,7 @@
         <v>-2</v>
       </c>
       <c r="C38" t="n">
-        <v>-25.95</v>
+        <v>-24.36</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -10357,7 +6397,7 @@
         <v>-2</v>
       </c>
       <c r="C39" t="n">
-        <v>-25.35</v>
+        <v>-23.76</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -10377,7 +6417,7 @@
         <v>-2</v>
       </c>
       <c r="C40" t="n">
-        <v>-24.75</v>
+        <v>-23.16</v>
       </c>
       <c r="D40" t="n">
         <v>9.01</v>
@@ -10397,7 +6437,7 @@
         <v>-2</v>
       </c>
       <c r="C41" t="n">
-        <v>-24.15</v>
+        <v>-22.56</v>
       </c>
       <c r="D41" t="n">
         <v>9.01</v>
@@ -10417,7 +6457,7 @@
         <v>-2</v>
       </c>
       <c r="C42" t="n">
-        <v>-23.55</v>
+        <v>-21.95</v>
       </c>
       <c r="D42" t="n">
         <v>9.01</v>
@@ -10437,7 +6477,7 @@
         <v>-2</v>
       </c>
       <c r="C43" t="n">
-        <v>-22.95</v>
+        <v>-21.35</v>
       </c>
       <c r="D43" t="n">
         <v>9.01</v>
@@ -10457,7 +6497,7 @@
         <v>-2</v>
       </c>
       <c r="C44" t="n">
-        <v>-22.35</v>
+        <v>-20.75</v>
       </c>
       <c r="D44" t="n">
         <v>9.01</v>
@@ -10477,7 +6517,7 @@
         <v>-2</v>
       </c>
       <c r="C45" t="n">
-        <v>-21.75</v>
+        <v>-20.15</v>
       </c>
       <c r="D45" t="n">
         <v>9.01</v>
@@ -10497,10 +6537,10 @@
         <v>-2</v>
       </c>
       <c r="C46" t="n">
-        <v>-21.15</v>
+        <v>-19.55</v>
       </c>
       <c r="D46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
         <v>1.57</v>
@@ -10517,10 +6557,10 @@
         <v>-2</v>
       </c>
       <c r="C47" t="n">
-        <v>-20.58</v>
+        <v>-18.95</v>
       </c>
       <c r="D47" t="n">
-        <v>8.06</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
         <v>1.57</v>
@@ -10537,10 +6577,10 @@
         <v>-2</v>
       </c>
       <c r="C48" t="n">
-        <v>-20.04</v>
+        <v>-18.35</v>
       </c>
       <c r="D48" t="n">
-        <v>7.66</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
         <v>1.57</v>
@@ -10557,10 +6597,10 @@
         <v>-2</v>
       </c>
       <c r="C49" t="n">
-        <v>-19.53</v>
+        <v>-17.75</v>
       </c>
       <c r="D49" t="n">
-        <v>7.31</v>
+        <v>9</v>
       </c>
       <c r="E49" t="n">
         <v>1.57</v>
@@ -10577,10 +6617,10 @@
         <v>-2</v>
       </c>
       <c r="C50" t="n">
-        <v>-19.05</v>
+        <v>-17.15</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E50" t="n">
         <v>1.57</v>
@@ -10597,10 +6637,10 @@
         <v>-2</v>
       </c>
       <c r="C51" t="n">
-        <v>-18.58</v>
+        <v>-16.55</v>
       </c>
       <c r="D51" t="n">
-        <v>6.72</v>
+        <v>9</v>
       </c>
       <c r="E51" t="n">
         <v>1.57</v>
@@ -10617,10 +6657,10 @@
         <v>-2</v>
       </c>
       <c r="C52" t="n">
-        <v>-18.13</v>
+        <v>-15.95</v>
       </c>
       <c r="D52" t="n">
-        <v>5.98</v>
+        <v>9</v>
       </c>
       <c r="E52" t="n">
         <v>1.57</v>
@@ -10637,10 +6677,10 @@
         <v>-2</v>
       </c>
       <c r="C53" t="n">
-        <v>-17.73</v>
+        <v>-15.35</v>
       </c>
       <c r="D53" t="n">
-        <v>5.31</v>
+        <v>9</v>
       </c>
       <c r="E53" t="n">
         <v>1.57</v>
@@ -10657,10 +6697,10 @@
         <v>-2</v>
       </c>
       <c r="C54" t="n">
-        <v>-17.38</v>
+        <v>-14.75</v>
       </c>
       <c r="D54" t="n">
-        <v>4.72</v>
+        <v>9</v>
       </c>
       <c r="E54" t="n">
         <v>1.57</v>
@@ -10677,10 +6717,10 @@
         <v>-2</v>
       </c>
       <c r="C55" t="n">
-        <v>-17.06</v>
+        <v>-14.15</v>
       </c>
       <c r="D55" t="n">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="E55" t="n">
         <v>1.57</v>
@@ -10697,10 +6737,10 @@
         <v>-2</v>
       </c>
       <c r="C56" t="n">
-        <v>-16.78</v>
+        <v>-13.55</v>
       </c>
       <c r="D56" t="n">
-        <v>3.73</v>
+        <v>9</v>
       </c>
       <c r="E56" t="n">
         <v>1.57</v>
@@ -10717,10 +6757,10 @@
         <v>-2</v>
       </c>
       <c r="C57" t="n">
-        <v>-16.53</v>
+        <v>-12.95</v>
       </c>
       <c r="D57" t="n">
-        <v>3.32</v>
+        <v>9</v>
       </c>
       <c r="E57" t="n">
         <v>1.57</v>
@@ -10734,16 +6774,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-2</v>
+        <v>-2.04</v>
       </c>
       <c r="C58" t="n">
-        <v>-16.31</v>
+        <v>-12.35</v>
       </c>
       <c r="D58" t="n">
-        <v>2.95</v>
+        <v>9</v>
       </c>
       <c r="E58" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -10754,16 +6794,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-2</v>
+        <v>-2.05</v>
       </c>
       <c r="C59" t="n">
-        <v>-16.12</v>
+        <v>-11.75</v>
       </c>
       <c r="D59" t="n">
-        <v>2.62</v>
+        <v>9</v>
       </c>
       <c r="E59" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -10774,13 +6814,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-2</v>
+        <v>-2.03</v>
       </c>
       <c r="C60" t="n">
-        <v>-15.94</v>
+        <v>-11.15</v>
       </c>
       <c r="D60" t="n">
-        <v>2.33</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n">
         <v>1.57</v>
@@ -10794,16 +6834,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-2</v>
+        <v>-1.97</v>
       </c>
       <c r="C61" t="n">
-        <v>-15.79</v>
+        <v>-10.55</v>
       </c>
       <c r="D61" t="n">
-        <v>2.07</v>
+        <v>9</v>
       </c>
       <c r="E61" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -10814,16 +6854,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-2</v>
+        <v>-1.89</v>
       </c>
       <c r="C62" t="n">
-        <v>-15.65</v>
+        <v>-9.960000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>1.84</v>
+        <v>9</v>
       </c>
       <c r="E62" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -10834,16 +6874,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-2</v>
+        <v>-1.79</v>
       </c>
       <c r="C63" t="n">
-        <v>-15.53</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>1.64</v>
+        <v>9</v>
       </c>
       <c r="E63" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -10854,16 +6894,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-2</v>
+        <v>-1.66</v>
       </c>
       <c r="C64" t="n">
-        <v>-15.42</v>
+        <v>-8.779999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>1.45</v>
+        <v>9</v>
       </c>
       <c r="E64" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -10874,16 +6914,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-2</v>
+        <v>-1.51</v>
       </c>
       <c r="C65" t="n">
-        <v>-15.32</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>1.29</v>
+        <v>9</v>
       </c>
       <c r="E65" t="n">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -10894,16 +6934,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-2</v>
+        <v>-1.33</v>
       </c>
       <c r="C66" t="n">
-        <v>-15.23</v>
+        <v>-7.63</v>
       </c>
       <c r="D66" t="n">
-        <v>1.15</v>
+        <v>9</v>
       </c>
       <c r="E66" t="n">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -10914,16 +6954,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-2</v>
+        <v>-1.13</v>
       </c>
       <c r="C67" t="n">
-        <v>-15.16</v>
+        <v>-7.06</v>
       </c>
       <c r="D67" t="n">
-        <v>1.02</v>
+        <v>9</v>
       </c>
       <c r="E67" t="n">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -10934,16 +6974,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-2</v>
+        <v>-0.91</v>
       </c>
       <c r="C68" t="n">
-        <v>-15.09</v>
+        <v>-6.51</v>
       </c>
       <c r="D68" t="n">
-        <v>0.91</v>
+        <v>9</v>
       </c>
       <c r="E68" t="n">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -10954,16 +6994,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-2</v>
+        <v>-0.66</v>
       </c>
       <c r="C69" t="n">
-        <v>-15.03</v>
+        <v>-5.96</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8100000000000001</v>
+        <v>9</v>
       </c>
       <c r="E69" t="n">
-        <v>1.57</v>
+        <v>1.27</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -10974,16 +7014,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-2</v>
+        <v>-0.39</v>
       </c>
       <c r="C70" t="n">
-        <v>-14.98</v>
+        <v>-5.43</v>
       </c>
       <c r="D70" t="n">
-        <v>0.72</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -10994,16 +7034,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-2</v>
+        <v>-0.09</v>
       </c>
       <c r="C71" t="n">
-        <v>-14.93</v>
+        <v>-4.9</v>
       </c>
       <c r="D71" t="n">
-        <v>0.64</v>
+        <v>9</v>
       </c>
       <c r="E71" t="n">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -11014,16 +7054,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-2</v>
+        <v>0.23</v>
       </c>
       <c r="C72" t="n">
-        <v>-14.89</v>
+        <v>-4.4</v>
       </c>
       <c r="D72" t="n">
-        <v>0.57</v>
+        <v>9</v>
       </c>
       <c r="E72" t="n">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -11034,16 +7074,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-2</v>
+        <v>0.57</v>
       </c>
       <c r="C73" t="n">
-        <v>-14.85</v>
+        <v>-3.9</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="E73" t="n">
-        <v>1.57</v>
+        <v>1.1</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -11054,16 +7094,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-2</v>
+        <v>0.93</v>
       </c>
       <c r="C74" t="n">
-        <v>-14.81</v>
+        <v>-3.42</v>
       </c>
       <c r="D74" t="n">
-        <v>0.45</v>
+        <v>9</v>
       </c>
       <c r="E74" t="n">
-        <v>1.57</v>
+        <v>1.06</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -11074,16 +7114,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-2</v>
+        <v>1.31</v>
       </c>
       <c r="C75" t="n">
-        <v>-14.78</v>
+        <v>-2.96</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="E75" t="n">
-        <v>1.57</v>
+        <v>1.02</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -11094,16 +7134,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-2</v>
+        <v>1.72</v>
       </c>
       <c r="C76" t="n">
-        <v>-14.76</v>
+        <v>-2.52</v>
       </c>
       <c r="D76" t="n">
-        <v>0.35</v>
+        <v>9</v>
       </c>
       <c r="E76" t="n">
-        <v>1.57</v>
+        <v>0.97</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -11114,16 +7154,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-2</v>
+        <v>2.14</v>
       </c>
       <c r="C77" t="n">
-        <v>-14.73</v>
+        <v>-2.09</v>
       </c>
       <c r="D77" t="n">
-        <v>0.31</v>
+        <v>9</v>
       </c>
       <c r="E77" t="n">
-        <v>1.57</v>
+        <v>0.93</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -11134,16 +7174,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-2</v>
+        <v>2.58</v>
       </c>
       <c r="C78" t="n">
-        <v>-14.71</v>
+        <v>-1.69</v>
       </c>
       <c r="D78" t="n">
-        <v>0.28</v>
+        <v>9</v>
       </c>
       <c r="E78" t="n">
-        <v>1.57</v>
+        <v>0.88</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -11154,16 +7194,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-2</v>
+        <v>3.04</v>
       </c>
       <c r="C79" t="n">
-        <v>-14.69</v>
+        <v>-1.3</v>
       </c>
       <c r="D79" t="n">
-        <v>0.25</v>
+        <v>9</v>
       </c>
       <c r="E79" t="n">
-        <v>1.57</v>
+        <v>0.84</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -11174,16 +7214,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-2</v>
+        <v>3.52</v>
       </c>
       <c r="C80" t="n">
-        <v>-14.68</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.22</v>
+        <v>9</v>
       </c>
       <c r="E80" t="n">
-        <v>1.57</v>
+        <v>0.79</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -11194,16 +7234,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-2</v>
+        <v>4.02</v>
       </c>
       <c r="C81" t="n">
-        <v>-14.66</v>
+        <v>-0.6</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2</v>
+        <v>9</v>
       </c>
       <c r="E81" t="n">
-        <v>1.57</v>
+        <v>0.75</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -11214,16 +7254,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-2</v>
+        <v>4.53</v>
       </c>
       <c r="C82" t="n">
-        <v>-14.65</v>
+        <v>-0.28</v>
       </c>
       <c r="D82" t="n">
-        <v>0.17</v>
+        <v>9</v>
       </c>
       <c r="E82" t="n">
-        <v>1.57</v>
+        <v>0.7</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -11234,16 +7274,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-2</v>
+        <v>5.05</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.64</v>
+        <v>0.01</v>
       </c>
       <c r="D83" t="n">
-        <v>0.16</v>
+        <v>9</v>
       </c>
       <c r="E83" t="n">
-        <v>1.57</v>
+        <v>0.66</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -11254,16 +7294,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-2</v>
+        <v>5.59</v>
       </c>
       <c r="C84" t="n">
-        <v>-14.63</v>
+        <v>0.27</v>
       </c>
       <c r="D84" t="n">
-        <v>0.64</v>
+        <v>9</v>
       </c>
       <c r="E84" t="n">
-        <v>1.57</v>
+        <v>0.61</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -11274,1338 +7314,18 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-2</v>
+        <v>6.11</v>
       </c>
       <c r="C85" t="n">
-        <v>-14.59</v>
+        <v>0.55</v>
       </c>
       <c r="D85" t="n">
-        <v>1.07</v>
+        <v>9</v>
       </c>
       <c r="E85" t="n">
-        <v>1.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-14.51</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-14.42</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-14.3</v>
-      </c>
-      <c r="D88" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="E88" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-14.16</v>
-      </c>
-      <c r="D89" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-14</v>
-      </c>
-      <c r="D90" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-13.8</v>
-      </c>
-      <c r="D91" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-13.55</v>
-      </c>
-      <c r="D92" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-13.26</v>
-      </c>
-      <c r="D93" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>-2.06</v>
-      </c>
-      <c r="C94" t="n">
-        <v>-12.94</v>
-      </c>
-      <c r="D94" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="F94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>-2.08</v>
-      </c>
-      <c r="C95" t="n">
-        <v>-12.58</v>
-      </c>
-      <c r="D95" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>-2.09</v>
-      </c>
-      <c r="C96" t="n">
-        <v>-12.2</v>
-      </c>
-      <c r="D96" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>-2.08</v>
-      </c>
-      <c r="C97" t="n">
-        <v>-11.8</v>
-      </c>
-      <c r="D97" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="E97" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>-2.06</v>
-      </c>
-      <c r="C98" t="n">
-        <v>-11.37</v>
-      </c>
-      <c r="D98" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="C99" t="n">
-        <v>-10.93</v>
-      </c>
-      <c r="D99" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="C100" t="n">
-        <v>-10.47</v>
-      </c>
-      <c r="D100" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>-1.91</v>
-      </c>
-      <c r="C101" t="n">
-        <v>-9.99</v>
-      </c>
-      <c r="D101" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="C102" t="n">
-        <v>-9.51</v>
-      </c>
-      <c r="D102" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>-1.72</v>
-      </c>
-      <c r="C103" t="n">
-        <v>-9.01</v>
-      </c>
-      <c r="D103" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>-1.59</v>
-      </c>
-      <c r="C104" t="n">
-        <v>-8.51</v>
-      </c>
-      <c r="D104" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="C105" t="n">
-        <v>-8.01</v>
-      </c>
-      <c r="D105" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="F105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>-1.29</v>
-      </c>
-      <c r="C106" t="n">
-        <v>-7.5</v>
-      </c>
-      <c r="D106" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="F106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="C107" t="n">
-        <v>-6.99</v>
-      </c>
-      <c r="D107" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="C108" t="n">
-        <v>-6.49</v>
-      </c>
-      <c r="D108" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="F108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>-0.67</v>
-      </c>
-      <c r="C109" t="n">
-        <v>-5.98</v>
-      </c>
-      <c r="D109" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="F109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="C110" t="n">
-        <v>-5.49</v>
-      </c>
-      <c r="D110" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="F110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-0.14</v>
-      </c>
-      <c r="C111" t="n">
-        <v>-4.99</v>
-      </c>
-      <c r="D111" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C112" t="n">
-        <v>-4.51</v>
-      </c>
-      <c r="D112" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="F112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="C113" t="n">
-        <v>-4.04</v>
-      </c>
-      <c r="D113" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="C114" t="n">
-        <v>-3.58</v>
-      </c>
-      <c r="D114" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="F114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="C115" t="n">
-        <v>-3.13</v>
-      </c>
-      <c r="D115" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F115" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="C116" t="n">
-        <v>-2.69</v>
-      </c>
-      <c r="D116" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F116" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="C117" t="n">
-        <v>-2.27</v>
-      </c>
-      <c r="D117" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="F117" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="C118" t="n">
-        <v>-1.87</v>
-      </c>
-      <c r="D118" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F118" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="C119" t="n">
-        <v>-1.48</v>
-      </c>
-      <c r="D119" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="F119" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="C120" t="n">
-        <v>-1.12</v>
-      </c>
-      <c r="D120" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F120" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="C121" t="n">
-        <v>-0.77</v>
-      </c>
-      <c r="D121" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="F121" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C122" t="n">
-        <v>-0.45</v>
-      </c>
-      <c r="D122" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="F122" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C123" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="D123" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="F123" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D124" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="F124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="D125" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D126" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="D127" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D128" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="D129" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="D130" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F130" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D131" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F131" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="D132" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F132" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="D133" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F133" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="D134" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F134" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="D135" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F135" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="D136" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F136" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="D137" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F137" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D138" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F138" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>14.02</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="D139" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F139" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="D140" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F140" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>15.22</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D141" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F141" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>15.81</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="D142" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F142" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="D143" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F143" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D144" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F144" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D145" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>18.21</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="D146" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F146" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="D147" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D148" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D149" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F149" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>20.61</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D150" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F150" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D151" t="n">
-        <v>9</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
